--- a/data/func.xlsx
+++ b/data/func.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haniel Costa\OneDrive\Desktop\GitHubProjetos\AutoJoin\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esocial9\Desktop\autoRename\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB10D21B-43FB-4A85-B21C-9EF853C9836D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0237D494-7090-4AA1-985D-399F27266BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1485" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="380">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -353,13 +353,820 @@
   </si>
   <si>
     <t>931857921</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>705</t>
+  </si>
+  <si>
+    <t>1866</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>3027</t>
+  </si>
+  <si>
+    <t>4188</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>5349</t>
+  </si>
+  <si>
+    <t>6510</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>7671</t>
+  </si>
+  <si>
+    <t>8832</t>
+  </si>
+  <si>
+    <t>1016</t>
+  </si>
+  <si>
+    <t>9993</t>
+  </si>
+  <si>
+    <t>11154</t>
+  </si>
+  <si>
+    <t>1017</t>
+  </si>
+  <si>
+    <t>12315</t>
+  </si>
+  <si>
+    <t>13476</t>
+  </si>
+  <si>
+    <t>1018</t>
+  </si>
+  <si>
+    <t>14637</t>
+  </si>
+  <si>
+    <t>15798</t>
+  </si>
+  <si>
+    <t>1019</t>
+  </si>
+  <si>
+    <t>16959</t>
+  </si>
+  <si>
+    <t>18120</t>
+  </si>
+  <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>19281</t>
+  </si>
+  <si>
+    <t>20442</t>
+  </si>
+  <si>
+    <t>1021</t>
+  </si>
+  <si>
+    <t>21603</t>
+  </si>
+  <si>
+    <t>22764</t>
+  </si>
+  <si>
+    <t>1022</t>
+  </si>
+  <si>
+    <t>23925</t>
+  </si>
+  <si>
+    <t>25086</t>
+  </si>
+  <si>
+    <t>1023</t>
+  </si>
+  <si>
+    <t>26247</t>
+  </si>
+  <si>
+    <t>27408</t>
+  </si>
+  <si>
+    <t>1024</t>
+  </si>
+  <si>
+    <t>28569</t>
+  </si>
+  <si>
+    <t>29730</t>
+  </si>
+  <si>
+    <t>1025</t>
+  </si>
+  <si>
+    <t>30891</t>
+  </si>
+  <si>
+    <t>32052</t>
+  </si>
+  <si>
+    <t>1026</t>
+  </si>
+  <si>
+    <t>33213</t>
+  </si>
+  <si>
+    <t>34374</t>
+  </si>
+  <si>
+    <t>1027</t>
+  </si>
+  <si>
+    <t>35535</t>
+  </si>
+  <si>
+    <t>36696</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +1180,12 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -713,8 +1526,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD9C9583-F18D-4B8E-9DFF-0A362D70A59C}" name="Tabela2" displayName="Tabela2" ref="A1:P15" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
-  <autoFilter ref="A1:P15" xr:uid="{FD9C9583-F18D-4B8E-9DFF-0A362D70A59C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD9C9583-F18D-4B8E-9DFF-0A362D70A59C}" name="Tabela2" displayName="Tabela2" ref="A1:P238" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
+  <autoFilter ref="A1:P238" xr:uid="{FD9C9583-F18D-4B8E-9DFF-0A362D70A59C}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{50C09D36-7065-4869-A89B-83158A3FCA50}" name="MATRICULA" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{9BCFDFC5-419C-47D8-A7E9-E053925FAFFE}" name="NOME" dataDxfId="14"/>
@@ -722,16 +1535,16 @@
     <tableColumn id="4" xr3:uid="{55593206-F501-4B1B-8F38-7638AC2FC474}" name="CPF" dataDxfId="12"/>
     <tableColumn id="5" xr3:uid="{27DBF3A5-0EB9-450A-8ACE-20B74444F268}" name="RUA" dataDxfId="11"/>
     <tableColumn id="6" xr3:uid="{326BE118-DC53-47BB-B58C-1BAF0B7992D9}" name="NOME_PAI" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{6E748758-AC23-4E11-AC0D-5A1F971BA1EB}" name="NOME_MAE" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{616C724E-E6F6-43F3-9BE0-78183815043D}" name="NUMERO" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{4BD4F5A2-A67B-4F7B-9A62-B5DA8C07848F}" name="COMPLEMENTO" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{34C9BE10-85EF-4988-BA25-AC6971ECE0BF}" name="BAIRRO" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{52BAFDDA-2367-4EEE-A85D-94BA646774C8}" name="MUNICIPIO" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{3F628F3C-2F12-4DFA-96AF-1073A0E668FA}" name="UF" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{E52607E0-7154-4962-9796-49D483D56DC0}" name="CEP" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{C2FE7E5F-CD5A-4938-A169-D790E424F526}" name="DDD" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{708DCFDF-EADB-44D8-A4B3-3A02490A35A5}" name="CELULAR" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{F40175EC-1BE3-4C7D-AE9C-CFE5C85CAF71}" name="FONE" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{6E748758-AC23-4E11-AC0D-5A1F971BA1EB}" name="NOME_MAE" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{616C724E-E6F6-43F3-9BE0-78183815043D}" name="NUMERO" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{4BD4F5A2-A67B-4F7B-9A62-B5DA8C07848F}" name="COMPLEMENTO" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{34C9BE10-85EF-4988-BA25-AC6971ECE0BF}" name="BAIRRO" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{52BAFDDA-2367-4EEE-A85D-94BA646774C8}" name="MUNICIPIO" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{3F628F3C-2F12-4DFA-96AF-1073A0E668FA}" name="UF" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{E52607E0-7154-4962-9796-49D483D56DC0}" name="CEP" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{C2FE7E5F-CD5A-4938-A169-D790E424F526}" name="DDD" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{708DCFDF-EADB-44D8-A4B3-3A02490A35A5}" name="CELULAR" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{F40175EC-1BE3-4C7D-AE9C-CFE5C85CAF71}" name="FONE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1022,10 +1835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="P239" sqref="P239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1650,7 +2463,8869 @@
         <v>0</v>
       </c>
     </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s">
+        <v>218</v>
+      </c>
+      <c r="J16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s">
+        <v>332</v>
+      </c>
+      <c r="J19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N19" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" t="s">
+        <v>60</v>
+      </c>
+      <c r="N21" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" t="s">
+        <v>333</v>
+      </c>
+      <c r="J22" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" t="s">
+        <v>69</v>
+      </c>
+      <c r="N22" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" t="s">
+        <v>334</v>
+      </c>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" t="s">
+        <v>78</v>
+      </c>
+      <c r="N23" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>55</v>
+      </c>
+      <c r="K24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" t="s">
+        <v>83</v>
+      </c>
+      <c r="N24" t="s">
+        <v>28</v>
+      </c>
+      <c r="O24" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" t="s">
+        <v>89</v>
+      </c>
+      <c r="N25" t="s">
+        <v>28</v>
+      </c>
+      <c r="O25" t="s">
+        <v>90</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>50</v>
+      </c>
+      <c r="L26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>28</v>
+      </c>
+      <c r="O26" t="s">
+        <v>94</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
+        <v>28</v>
+      </c>
+      <c r="O29" t="s">
+        <v>110</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" t="s">
+        <v>219</v>
+      </c>
+      <c r="J30" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" t="s">
+        <v>28</v>
+      </c>
+      <c r="O30" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" t="s">
+        <v>335</v>
+      </c>
+      <c r="J33" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33" t="s">
+        <v>50</v>
+      </c>
+      <c r="L33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33" t="s">
+        <v>51</v>
+      </c>
+      <c r="N33" t="s">
+        <v>28</v>
+      </c>
+      <c r="O33" t="s">
+        <v>29</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
+        <v>28</v>
+      </c>
+      <c r="O34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>59</v>
+      </c>
+      <c r="K35" t="s">
+        <v>50</v>
+      </c>
+      <c r="L35" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" t="s">
+        <v>60</v>
+      </c>
+      <c r="N35" t="s">
+        <v>28</v>
+      </c>
+      <c r="O35" t="s">
+        <v>61</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" t="s">
+        <v>336</v>
+      </c>
+      <c r="J36" t="s">
+        <v>68</v>
+      </c>
+      <c r="K36" t="s">
+        <v>50</v>
+      </c>
+      <c r="L36" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" t="s">
+        <v>69</v>
+      </c>
+      <c r="N36" t="s">
+        <v>28</v>
+      </c>
+      <c r="O36" t="s">
+        <v>70</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" t="s">
+        <v>77</v>
+      </c>
+      <c r="H37" t="s">
+        <v>337</v>
+      </c>
+      <c r="J37" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" t="s">
+        <v>78</v>
+      </c>
+      <c r="N37" t="s">
+        <v>28</v>
+      </c>
+      <c r="O37" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" t="s">
+        <v>82</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>55</v>
+      </c>
+      <c r="K38" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38" t="s">
+        <v>83</v>
+      </c>
+      <c r="N38" t="s">
+        <v>28</v>
+      </c>
+      <c r="O38" t="s">
+        <v>29</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>88</v>
+      </c>
+      <c r="K39" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39" t="s">
+        <v>89</v>
+      </c>
+      <c r="N39" t="s">
+        <v>28</v>
+      </c>
+      <c r="O39" t="s">
+        <v>90</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" t="s">
+        <v>36</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>50</v>
+      </c>
+      <c r="L40" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O40" t="s">
+        <v>94</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" t="s">
+        <v>99</v>
+      </c>
+      <c r="G41" t="s">
+        <v>100</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" t="s">
+        <v>106</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" t="s">
+        <v>36</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43" t="s">
+        <v>28</v>
+      </c>
+      <c r="O43" t="s">
+        <v>110</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" t="s">
+        <v>220</v>
+      </c>
+      <c r="J44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K44" t="s">
+        <v>25</v>
+      </c>
+      <c r="L44" t="s">
+        <v>26</v>
+      </c>
+      <c r="M44" t="s">
+        <v>27</v>
+      </c>
+      <c r="N44" t="s">
+        <v>28</v>
+      </c>
+      <c r="O44" t="s">
+        <v>29</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" t="s">
+        <v>34</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>141</v>
+      </c>
+      <c r="B46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" t="s">
+        <v>36</v>
+      </c>
+      <c r="H47" t="s">
+        <v>338</v>
+      </c>
+      <c r="J47" t="s">
+        <v>49</v>
+      </c>
+      <c r="K47" t="s">
+        <v>50</v>
+      </c>
+      <c r="L47" t="s">
+        <v>26</v>
+      </c>
+      <c r="M47" t="s">
+        <v>51</v>
+      </c>
+      <c r="N47" t="s">
+        <v>28</v>
+      </c>
+      <c r="O47" t="s">
+        <v>29</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" t="s">
+        <v>54</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s">
+        <v>28</v>
+      </c>
+      <c r="O48" t="s">
+        <v>29</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G49" t="s">
+        <v>36</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>59</v>
+      </c>
+      <c r="K49" t="s">
+        <v>50</v>
+      </c>
+      <c r="L49" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49" t="s">
+        <v>60</v>
+      </c>
+      <c r="N49" t="s">
+        <v>28</v>
+      </c>
+      <c r="O49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50" t="s">
+        <v>36</v>
+      </c>
+      <c r="H50" t="s">
+        <v>339</v>
+      </c>
+      <c r="J50" t="s">
+        <v>68</v>
+      </c>
+      <c r="K50" t="s">
+        <v>50</v>
+      </c>
+      <c r="L50" t="s">
+        <v>26</v>
+      </c>
+      <c r="M50" t="s">
+        <v>69</v>
+      </c>
+      <c r="N50" t="s">
+        <v>28</v>
+      </c>
+      <c r="O50" t="s">
+        <v>70</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51" t="s">
+        <v>76</v>
+      </c>
+      <c r="G51" t="s">
+        <v>77</v>
+      </c>
+      <c r="H51" t="s">
+        <v>340</v>
+      </c>
+      <c r="J51" t="s">
+        <v>49</v>
+      </c>
+      <c r="K51" t="s">
+        <v>25</v>
+      </c>
+      <c r="L51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M51" t="s">
+        <v>78</v>
+      </c>
+      <c r="N51" t="s">
+        <v>28</v>
+      </c>
+      <c r="O51" t="s">
+        <v>29</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" t="s">
+        <v>82</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="J52" t="s">
+        <v>55</v>
+      </c>
+      <c r="K52" t="s">
+        <v>25</v>
+      </c>
+      <c r="L52" t="s">
+        <v>26</v>
+      </c>
+      <c r="M52" t="s">
+        <v>83</v>
+      </c>
+      <c r="N52" t="s">
+        <v>28</v>
+      </c>
+      <c r="O52" t="s">
+        <v>29</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" t="s">
+        <v>87</v>
+      </c>
+      <c r="F53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="J53" t="s">
+        <v>88</v>
+      </c>
+      <c r="K53" t="s">
+        <v>25</v>
+      </c>
+      <c r="L53" t="s">
+        <v>26</v>
+      </c>
+      <c r="M53" t="s">
+        <v>89</v>
+      </c>
+      <c r="N53" t="s">
+        <v>28</v>
+      </c>
+      <c r="O53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" t="s">
+        <v>93</v>
+      </c>
+      <c r="G54" t="s">
+        <v>36</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>50</v>
+      </c>
+      <c r="L54" t="s">
+        <v>26</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54" t="s">
+        <v>28</v>
+      </c>
+      <c r="O54" t="s">
+        <v>94</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" t="s">
+        <v>99</v>
+      </c>
+      <c r="G55" t="s">
+        <v>100</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>151</v>
+      </c>
+      <c r="B56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" t="s">
+        <v>105</v>
+      </c>
+      <c r="G56" t="s">
+        <v>106</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>152</v>
+      </c>
+      <c r="B57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57" t="s">
+        <v>36</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
+        <v>28</v>
+      </c>
+      <c r="O57" t="s">
+        <v>110</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>153</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" t="s">
+        <v>221</v>
+      </c>
+      <c r="J58" t="s">
+        <v>24</v>
+      </c>
+      <c r="K58" t="s">
+        <v>25</v>
+      </c>
+      <c r="L58" t="s">
+        <v>26</v>
+      </c>
+      <c r="M58" t="s">
+        <v>27</v>
+      </c>
+      <c r="N58" t="s">
+        <v>28</v>
+      </c>
+      <c r="O58" t="s">
+        <v>29</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>154</v>
+      </c>
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" t="s">
+        <v>34</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>155</v>
+      </c>
+      <c r="B60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" t="s">
+        <v>42</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>156</v>
+      </c>
+      <c r="B61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" t="s">
+        <v>45</v>
+      </c>
+      <c r="D61" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" t="s">
+        <v>47</v>
+      </c>
+      <c r="F61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" t="s">
+        <v>341</v>
+      </c>
+      <c r="J61" t="s">
+        <v>49</v>
+      </c>
+      <c r="K61" t="s">
+        <v>50</v>
+      </c>
+      <c r="L61" t="s">
+        <v>26</v>
+      </c>
+      <c r="M61" t="s">
+        <v>51</v>
+      </c>
+      <c r="N61" t="s">
+        <v>28</v>
+      </c>
+      <c r="O61" t="s">
+        <v>29</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>157</v>
+      </c>
+      <c r="B62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" t="s">
+        <v>54</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62" t="s">
+        <v>28</v>
+      </c>
+      <c r="O62" t="s">
+        <v>29</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>158</v>
+      </c>
+      <c r="B63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" t="s">
+        <v>45</v>
+      </c>
+      <c r="D63" t="s">
+        <v>58</v>
+      </c>
+      <c r="F63" t="s">
+        <v>35</v>
+      </c>
+      <c r="G63" t="s">
+        <v>36</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="J63" t="s">
+        <v>59</v>
+      </c>
+      <c r="K63" t="s">
+        <v>50</v>
+      </c>
+      <c r="L63" t="s">
+        <v>26</v>
+      </c>
+      <c r="M63" t="s">
+        <v>60</v>
+      </c>
+      <c r="N63" t="s">
+        <v>28</v>
+      </c>
+      <c r="O63" t="s">
+        <v>61</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64" t="s">
+        <v>65</v>
+      </c>
+      <c r="E64" t="s">
+        <v>66</v>
+      </c>
+      <c r="F64" t="s">
+        <v>35</v>
+      </c>
+      <c r="G64" t="s">
+        <v>36</v>
+      </c>
+      <c r="H64" t="s">
+        <v>342</v>
+      </c>
+      <c r="J64" t="s">
+        <v>68</v>
+      </c>
+      <c r="K64" t="s">
+        <v>50</v>
+      </c>
+      <c r="L64" t="s">
+        <v>26</v>
+      </c>
+      <c r="M64" t="s">
+        <v>69</v>
+      </c>
+      <c r="N64" t="s">
+        <v>28</v>
+      </c>
+      <c r="O64" t="s">
+        <v>70</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>160</v>
+      </c>
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" t="s">
+        <v>74</v>
+      </c>
+      <c r="E65" t="s">
+        <v>75</v>
+      </c>
+      <c r="F65" t="s">
+        <v>76</v>
+      </c>
+      <c r="G65" t="s">
+        <v>77</v>
+      </c>
+      <c r="H65" t="s">
+        <v>343</v>
+      </c>
+      <c r="J65" t="s">
+        <v>49</v>
+      </c>
+      <c r="K65" t="s">
+        <v>25</v>
+      </c>
+      <c r="L65" t="s">
+        <v>26</v>
+      </c>
+      <c r="M65" t="s">
+        <v>78</v>
+      </c>
+      <c r="N65" t="s">
+        <v>28</v>
+      </c>
+      <c r="O65" t="s">
+        <v>29</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>161</v>
+      </c>
+      <c r="B66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66" t="s">
+        <v>82</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="J66" t="s">
+        <v>55</v>
+      </c>
+      <c r="K66" t="s">
+        <v>25</v>
+      </c>
+      <c r="L66" t="s">
+        <v>26</v>
+      </c>
+      <c r="M66" t="s">
+        <v>83</v>
+      </c>
+      <c r="N66" t="s">
+        <v>28</v>
+      </c>
+      <c r="O66" t="s">
+        <v>29</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" t="s">
+        <v>87</v>
+      </c>
+      <c r="F67" t="s">
+        <v>35</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="J67" t="s">
+        <v>88</v>
+      </c>
+      <c r="K67" t="s">
+        <v>25</v>
+      </c>
+      <c r="L67" t="s">
+        <v>26</v>
+      </c>
+      <c r="M67" t="s">
+        <v>89</v>
+      </c>
+      <c r="N67" t="s">
+        <v>28</v>
+      </c>
+      <c r="O67" t="s">
+        <v>90</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>163</v>
+      </c>
+      <c r="B68" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" t="s">
+        <v>93</v>
+      </c>
+      <c r="G68" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>50</v>
+      </c>
+      <c r="L68" t="s">
+        <v>26</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68" t="s">
+        <v>28</v>
+      </c>
+      <c r="O68" t="s">
+        <v>94</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>164</v>
+      </c>
+      <c r="B69" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69" t="s">
+        <v>97</v>
+      </c>
+      <c r="E69" t="s">
+        <v>98</v>
+      </c>
+      <c r="F69" t="s">
+        <v>99</v>
+      </c>
+      <c r="G69" t="s">
+        <v>100</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>165</v>
+      </c>
+      <c r="B70" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" t="s">
+        <v>103</v>
+      </c>
+      <c r="E70" t="s">
+        <v>104</v>
+      </c>
+      <c r="F70" t="s">
+        <v>105</v>
+      </c>
+      <c r="G70" t="s">
+        <v>106</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>166</v>
+      </c>
+      <c r="B71" t="s">
+        <v>108</v>
+      </c>
+      <c r="C71" t="s">
+        <v>73</v>
+      </c>
+      <c r="D71" t="s">
+        <v>109</v>
+      </c>
+      <c r="F71" t="s">
+        <v>35</v>
+      </c>
+      <c r="G71" t="s">
+        <v>36</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71" t="s">
+        <v>28</v>
+      </c>
+      <c r="O71" t="s">
+        <v>110</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>167</v>
+      </c>
+      <c r="B72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" t="s">
+        <v>222</v>
+      </c>
+      <c r="J72" t="s">
+        <v>24</v>
+      </c>
+      <c r="K72" t="s">
+        <v>25</v>
+      </c>
+      <c r="L72" t="s">
+        <v>26</v>
+      </c>
+      <c r="M72" t="s">
+        <v>27</v>
+      </c>
+      <c r="N72" t="s">
+        <v>28</v>
+      </c>
+      <c r="O72" t="s">
+        <v>29</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>168</v>
+      </c>
+      <c r="B73" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" t="s">
+        <v>32</v>
+      </c>
+      <c r="D73" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" t="s">
+        <v>34</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>169</v>
+      </c>
+      <c r="B74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" t="s">
+        <v>41</v>
+      </c>
+      <c r="E74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>170</v>
+      </c>
+      <c r="B75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" t="s">
+        <v>45</v>
+      </c>
+      <c r="D75" t="s">
+        <v>46</v>
+      </c>
+      <c r="E75" t="s">
+        <v>47</v>
+      </c>
+      <c r="F75" t="s">
+        <v>35</v>
+      </c>
+      <c r="G75" t="s">
+        <v>36</v>
+      </c>
+      <c r="H75" t="s">
+        <v>344</v>
+      </c>
+      <c r="J75" t="s">
+        <v>49</v>
+      </c>
+      <c r="K75" t="s">
+        <v>50</v>
+      </c>
+      <c r="L75" t="s">
+        <v>26</v>
+      </c>
+      <c r="M75" t="s">
+        <v>51</v>
+      </c>
+      <c r="N75" t="s">
+        <v>28</v>
+      </c>
+      <c r="O75" t="s">
+        <v>29</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>171</v>
+      </c>
+      <c r="B76" t="s">
+        <v>53</v>
+      </c>
+      <c r="C76" t="s">
+        <v>32</v>
+      </c>
+      <c r="D76" t="s">
+        <v>54</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76" t="s">
+        <v>28</v>
+      </c>
+      <c r="O76" t="s">
+        <v>29</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>172</v>
+      </c>
+      <c r="B77" t="s">
+        <v>57</v>
+      </c>
+      <c r="C77" t="s">
+        <v>45</v>
+      </c>
+      <c r="D77" t="s">
+        <v>58</v>
+      </c>
+      <c r="F77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G77" t="s">
+        <v>36</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="J77" t="s">
+        <v>59</v>
+      </c>
+      <c r="K77" t="s">
+        <v>50</v>
+      </c>
+      <c r="L77" t="s">
+        <v>26</v>
+      </c>
+      <c r="M77" t="s">
+        <v>60</v>
+      </c>
+      <c r="N77" t="s">
+        <v>28</v>
+      </c>
+      <c r="O77" t="s">
+        <v>61</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>173</v>
+      </c>
+      <c r="B78" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" t="s">
+        <v>64</v>
+      </c>
+      <c r="D78" t="s">
+        <v>65</v>
+      </c>
+      <c r="E78" t="s">
+        <v>66</v>
+      </c>
+      <c r="F78" t="s">
+        <v>35</v>
+      </c>
+      <c r="G78" t="s">
+        <v>36</v>
+      </c>
+      <c r="H78" t="s">
+        <v>345</v>
+      </c>
+      <c r="J78" t="s">
+        <v>68</v>
+      </c>
+      <c r="K78" t="s">
+        <v>50</v>
+      </c>
+      <c r="L78" t="s">
+        <v>26</v>
+      </c>
+      <c r="M78" t="s">
+        <v>69</v>
+      </c>
+      <c r="N78" t="s">
+        <v>28</v>
+      </c>
+      <c r="O78" t="s">
+        <v>70</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>174</v>
+      </c>
+      <c r="B79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" t="s">
+        <v>73</v>
+      </c>
+      <c r="D79" t="s">
+        <v>74</v>
+      </c>
+      <c r="E79" t="s">
+        <v>75</v>
+      </c>
+      <c r="F79" t="s">
+        <v>76</v>
+      </c>
+      <c r="G79" t="s">
+        <v>77</v>
+      </c>
+      <c r="H79" t="s">
+        <v>346</v>
+      </c>
+      <c r="J79" t="s">
+        <v>49</v>
+      </c>
+      <c r="K79" t="s">
+        <v>25</v>
+      </c>
+      <c r="L79" t="s">
+        <v>26</v>
+      </c>
+      <c r="M79" t="s">
+        <v>78</v>
+      </c>
+      <c r="N79" t="s">
+        <v>28</v>
+      </c>
+      <c r="O79" t="s">
+        <v>29</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>175</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" t="s">
+        <v>45</v>
+      </c>
+      <c r="D80" t="s">
+        <v>81</v>
+      </c>
+      <c r="E80" t="s">
+        <v>82</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="J80" t="s">
+        <v>55</v>
+      </c>
+      <c r="K80" t="s">
+        <v>25</v>
+      </c>
+      <c r="L80" t="s">
+        <v>26</v>
+      </c>
+      <c r="M80" t="s">
+        <v>83</v>
+      </c>
+      <c r="N80" t="s">
+        <v>28</v>
+      </c>
+      <c r="O80" t="s">
+        <v>29</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>176</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" t="s">
+        <v>86</v>
+      </c>
+      <c r="D81" t="s">
+        <v>87</v>
+      </c>
+      <c r="F81" t="s">
+        <v>35</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="J81" t="s">
+        <v>88</v>
+      </c>
+      <c r="K81" t="s">
+        <v>25</v>
+      </c>
+      <c r="L81" t="s">
+        <v>26</v>
+      </c>
+      <c r="M81" t="s">
+        <v>89</v>
+      </c>
+      <c r="N81" t="s">
+        <v>28</v>
+      </c>
+      <c r="O81" t="s">
+        <v>90</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>177</v>
+      </c>
+      <c r="B82" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" t="s">
+        <v>73</v>
+      </c>
+      <c r="D82" t="s">
+        <v>93</v>
+      </c>
+      <c r="G82" t="s">
+        <v>36</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="K82" t="s">
+        <v>50</v>
+      </c>
+      <c r="L82" t="s">
+        <v>26</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82" t="s">
+        <v>28</v>
+      </c>
+      <c r="O82" t="s">
+        <v>94</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>178</v>
+      </c>
+      <c r="B83" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" t="s">
+        <v>64</v>
+      </c>
+      <c r="D83" t="s">
+        <v>97</v>
+      </c>
+      <c r="E83" t="s">
+        <v>98</v>
+      </c>
+      <c r="F83" t="s">
+        <v>99</v>
+      </c>
+      <c r="G83" t="s">
+        <v>100</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" t="s">
+        <v>102</v>
+      </c>
+      <c r="C84" t="s">
+        <v>32</v>
+      </c>
+      <c r="D84" t="s">
+        <v>103</v>
+      </c>
+      <c r="E84" t="s">
+        <v>104</v>
+      </c>
+      <c r="F84" t="s">
+        <v>105</v>
+      </c>
+      <c r="G84" t="s">
+        <v>106</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>179</v>
+      </c>
+      <c r="B85" t="s">
+        <v>108</v>
+      </c>
+      <c r="C85" t="s">
+        <v>73</v>
+      </c>
+      <c r="D85" t="s">
+        <v>109</v>
+      </c>
+      <c r="F85" t="s">
+        <v>35</v>
+      </c>
+      <c r="G85" t="s">
+        <v>36</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85" t="s">
+        <v>28</v>
+      </c>
+      <c r="O85" t="s">
+        <v>110</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>180</v>
+      </c>
+      <c r="B86" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" t="s">
+        <v>20</v>
+      </c>
+      <c r="F86" t="s">
+        <v>21</v>
+      </c>
+      <c r="G86" t="s">
+        <v>22</v>
+      </c>
+      <c r="H86" t="s">
+        <v>223</v>
+      </c>
+      <c r="J86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K86" t="s">
+        <v>25</v>
+      </c>
+      <c r="L86" t="s">
+        <v>26</v>
+      </c>
+      <c r="M86" t="s">
+        <v>27</v>
+      </c>
+      <c r="N86" t="s">
+        <v>28</v>
+      </c>
+      <c r="O86" t="s">
+        <v>29</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>181</v>
+      </c>
+      <c r="B87" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" t="s">
+        <v>32</v>
+      </c>
+      <c r="D87" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87" t="s">
+        <v>34</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>182</v>
+      </c>
+      <c r="B88" t="s">
+        <v>39</v>
+      </c>
+      <c r="C88" t="s">
+        <v>40</v>
+      </c>
+      <c r="D88" t="s">
+        <v>41</v>
+      </c>
+      <c r="E88" t="s">
+        <v>42</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>183</v>
+      </c>
+      <c r="B89" t="s">
+        <v>44</v>
+      </c>
+      <c r="C89" t="s">
+        <v>45</v>
+      </c>
+      <c r="D89" t="s">
+        <v>46</v>
+      </c>
+      <c r="E89" t="s">
+        <v>47</v>
+      </c>
+      <c r="F89" t="s">
+        <v>35</v>
+      </c>
+      <c r="G89" t="s">
+        <v>36</v>
+      </c>
+      <c r="H89" t="s">
+        <v>347</v>
+      </c>
+      <c r="J89" t="s">
+        <v>49</v>
+      </c>
+      <c r="K89" t="s">
+        <v>50</v>
+      </c>
+      <c r="L89" t="s">
+        <v>26</v>
+      </c>
+      <c r="M89" t="s">
+        <v>51</v>
+      </c>
+      <c r="N89" t="s">
+        <v>28</v>
+      </c>
+      <c r="O89" t="s">
+        <v>29</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>184</v>
+      </c>
+      <c r="B90" t="s">
+        <v>53</v>
+      </c>
+      <c r="C90" t="s">
+        <v>32</v>
+      </c>
+      <c r="D90" t="s">
+        <v>54</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90" t="s">
+        <v>28</v>
+      </c>
+      <c r="O90" t="s">
+        <v>29</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>185</v>
+      </c>
+      <c r="B91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C91" t="s">
+        <v>45</v>
+      </c>
+      <c r="D91" t="s">
+        <v>58</v>
+      </c>
+      <c r="F91" t="s">
+        <v>35</v>
+      </c>
+      <c r="G91" t="s">
+        <v>36</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="J91" t="s">
+        <v>59</v>
+      </c>
+      <c r="K91" t="s">
+        <v>50</v>
+      </c>
+      <c r="L91" t="s">
+        <v>26</v>
+      </c>
+      <c r="M91" t="s">
+        <v>60</v>
+      </c>
+      <c r="N91" t="s">
+        <v>28</v>
+      </c>
+      <c r="O91" t="s">
+        <v>61</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>186</v>
+      </c>
+      <c r="B92" t="s">
+        <v>63</v>
+      </c>
+      <c r="C92" t="s">
+        <v>64</v>
+      </c>
+      <c r="D92" t="s">
+        <v>65</v>
+      </c>
+      <c r="E92" t="s">
+        <v>66</v>
+      </c>
+      <c r="F92" t="s">
+        <v>35</v>
+      </c>
+      <c r="G92" t="s">
+        <v>36</v>
+      </c>
+      <c r="H92" t="s">
+        <v>348</v>
+      </c>
+      <c r="J92" t="s">
+        <v>68</v>
+      </c>
+      <c r="K92" t="s">
+        <v>50</v>
+      </c>
+      <c r="L92" t="s">
+        <v>26</v>
+      </c>
+      <c r="M92" t="s">
+        <v>69</v>
+      </c>
+      <c r="N92" t="s">
+        <v>28</v>
+      </c>
+      <c r="O92" t="s">
+        <v>70</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" t="s">
+        <v>72</v>
+      </c>
+      <c r="C93" t="s">
+        <v>73</v>
+      </c>
+      <c r="D93" t="s">
+        <v>74</v>
+      </c>
+      <c r="E93" t="s">
+        <v>75</v>
+      </c>
+      <c r="F93" t="s">
+        <v>76</v>
+      </c>
+      <c r="G93" t="s">
+        <v>77</v>
+      </c>
+      <c r="H93" t="s">
+        <v>349</v>
+      </c>
+      <c r="J93" t="s">
+        <v>49</v>
+      </c>
+      <c r="K93" t="s">
+        <v>25</v>
+      </c>
+      <c r="L93" t="s">
+        <v>26</v>
+      </c>
+      <c r="M93" t="s">
+        <v>78</v>
+      </c>
+      <c r="N93" t="s">
+        <v>28</v>
+      </c>
+      <c r="O93" t="s">
+        <v>29</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>188</v>
+      </c>
+      <c r="B94" t="s">
+        <v>80</v>
+      </c>
+      <c r="C94" t="s">
+        <v>45</v>
+      </c>
+      <c r="D94" t="s">
+        <v>81</v>
+      </c>
+      <c r="E94" t="s">
+        <v>82</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="J94" t="s">
+        <v>55</v>
+      </c>
+      <c r="K94" t="s">
+        <v>25</v>
+      </c>
+      <c r="L94" t="s">
+        <v>26</v>
+      </c>
+      <c r="M94" t="s">
+        <v>83</v>
+      </c>
+      <c r="N94" t="s">
+        <v>28</v>
+      </c>
+      <c r="O94" t="s">
+        <v>29</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>189</v>
+      </c>
+      <c r="B95" t="s">
+        <v>85</v>
+      </c>
+      <c r="C95" t="s">
+        <v>86</v>
+      </c>
+      <c r="D95" t="s">
+        <v>87</v>
+      </c>
+      <c r="F95" t="s">
+        <v>35</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="J95" t="s">
+        <v>88</v>
+      </c>
+      <c r="K95" t="s">
+        <v>25</v>
+      </c>
+      <c r="L95" t="s">
+        <v>26</v>
+      </c>
+      <c r="M95" t="s">
+        <v>89</v>
+      </c>
+      <c r="N95" t="s">
+        <v>28</v>
+      </c>
+      <c r="O95" t="s">
+        <v>90</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" t="s">
+        <v>73</v>
+      </c>
+      <c r="D96" t="s">
+        <v>93</v>
+      </c>
+      <c r="G96" t="s">
+        <v>36</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="K96" t="s">
+        <v>50</v>
+      </c>
+      <c r="L96" t="s">
+        <v>26</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96" t="s">
+        <v>28</v>
+      </c>
+      <c r="O96" t="s">
+        <v>94</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" t="s">
+        <v>64</v>
+      </c>
+      <c r="D97" t="s">
+        <v>97</v>
+      </c>
+      <c r="E97" t="s">
+        <v>98</v>
+      </c>
+      <c r="F97" t="s">
+        <v>99</v>
+      </c>
+      <c r="G97" t="s">
+        <v>100</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" t="s">
+        <v>102</v>
+      </c>
+      <c r="C98" t="s">
+        <v>32</v>
+      </c>
+      <c r="D98" t="s">
+        <v>103</v>
+      </c>
+      <c r="E98" t="s">
+        <v>104</v>
+      </c>
+      <c r="F98" t="s">
+        <v>105</v>
+      </c>
+      <c r="G98" t="s">
+        <v>106</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>193</v>
+      </c>
+      <c r="B99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99" t="s">
+        <v>73</v>
+      </c>
+      <c r="D99" t="s">
+        <v>109</v>
+      </c>
+      <c r="F99" t="s">
+        <v>35</v>
+      </c>
+      <c r="G99" t="s">
+        <v>36</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99" t="s">
+        <v>28</v>
+      </c>
+      <c r="O99" t="s">
+        <v>110</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>194</v>
+      </c>
+      <c r="B100" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" t="s">
+        <v>19</v>
+      </c>
+      <c r="E100" t="s">
+        <v>20</v>
+      </c>
+      <c r="F100" t="s">
+        <v>21</v>
+      </c>
+      <c r="G100" t="s">
+        <v>22</v>
+      </c>
+      <c r="H100" t="s">
+        <v>224</v>
+      </c>
+      <c r="J100" t="s">
+        <v>24</v>
+      </c>
+      <c r="K100" t="s">
+        <v>25</v>
+      </c>
+      <c r="L100" t="s">
+        <v>26</v>
+      </c>
+      <c r="M100" t="s">
+        <v>27</v>
+      </c>
+      <c r="N100" t="s">
+        <v>28</v>
+      </c>
+      <c r="O100" t="s">
+        <v>29</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>195</v>
+      </c>
+      <c r="B101" t="s">
+        <v>31</v>
+      </c>
+      <c r="C101" t="s">
+        <v>32</v>
+      </c>
+      <c r="D101" t="s">
+        <v>33</v>
+      </c>
+      <c r="E101" t="s">
+        <v>34</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>196</v>
+      </c>
+      <c r="B102" t="s">
+        <v>39</v>
+      </c>
+      <c r="C102" t="s">
+        <v>40</v>
+      </c>
+      <c r="D102" t="s">
+        <v>41</v>
+      </c>
+      <c r="E102" t="s">
+        <v>42</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>197</v>
+      </c>
+      <c r="B103" t="s">
+        <v>44</v>
+      </c>
+      <c r="C103" t="s">
+        <v>45</v>
+      </c>
+      <c r="D103" t="s">
+        <v>46</v>
+      </c>
+      <c r="E103" t="s">
+        <v>47</v>
+      </c>
+      <c r="F103" t="s">
+        <v>35</v>
+      </c>
+      <c r="G103" t="s">
+        <v>36</v>
+      </c>
+      <c r="H103" t="s">
+        <v>350</v>
+      </c>
+      <c r="J103" t="s">
+        <v>49</v>
+      </c>
+      <c r="K103" t="s">
+        <v>50</v>
+      </c>
+      <c r="L103" t="s">
+        <v>26</v>
+      </c>
+      <c r="M103" t="s">
+        <v>51</v>
+      </c>
+      <c r="N103" t="s">
+        <v>28</v>
+      </c>
+      <c r="O103" t="s">
+        <v>29</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>198</v>
+      </c>
+      <c r="B104" t="s">
+        <v>53</v>
+      </c>
+      <c r="C104" t="s">
+        <v>32</v>
+      </c>
+      <c r="D104" t="s">
+        <v>54</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104" t="s">
+        <v>28</v>
+      </c>
+      <c r="O104" t="s">
+        <v>29</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>199</v>
+      </c>
+      <c r="B105" t="s">
+        <v>57</v>
+      </c>
+      <c r="C105" t="s">
+        <v>45</v>
+      </c>
+      <c r="D105" t="s">
+        <v>58</v>
+      </c>
+      <c r="F105" t="s">
+        <v>35</v>
+      </c>
+      <c r="G105" t="s">
+        <v>36</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="J105" t="s">
+        <v>59</v>
+      </c>
+      <c r="K105" t="s">
+        <v>50</v>
+      </c>
+      <c r="L105" t="s">
+        <v>26</v>
+      </c>
+      <c r="M105" t="s">
+        <v>60</v>
+      </c>
+      <c r="N105" t="s">
+        <v>28</v>
+      </c>
+      <c r="O105" t="s">
+        <v>61</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>200</v>
+      </c>
+      <c r="B106" t="s">
+        <v>63</v>
+      </c>
+      <c r="C106" t="s">
+        <v>64</v>
+      </c>
+      <c r="D106" t="s">
+        <v>65</v>
+      </c>
+      <c r="E106" t="s">
+        <v>66</v>
+      </c>
+      <c r="F106" t="s">
+        <v>35</v>
+      </c>
+      <c r="G106" t="s">
+        <v>36</v>
+      </c>
+      <c r="H106" t="s">
+        <v>351</v>
+      </c>
+      <c r="J106" t="s">
+        <v>68</v>
+      </c>
+      <c r="K106" t="s">
+        <v>50</v>
+      </c>
+      <c r="L106" t="s">
+        <v>26</v>
+      </c>
+      <c r="M106" t="s">
+        <v>69</v>
+      </c>
+      <c r="N106" t="s">
+        <v>28</v>
+      </c>
+      <c r="O106" t="s">
+        <v>70</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>201</v>
+      </c>
+      <c r="B107" t="s">
+        <v>72</v>
+      </c>
+      <c r="C107" t="s">
+        <v>73</v>
+      </c>
+      <c r="D107" t="s">
+        <v>74</v>
+      </c>
+      <c r="E107" t="s">
+        <v>75</v>
+      </c>
+      <c r="F107" t="s">
+        <v>76</v>
+      </c>
+      <c r="G107" t="s">
+        <v>77</v>
+      </c>
+      <c r="H107" t="s">
+        <v>352</v>
+      </c>
+      <c r="J107" t="s">
+        <v>49</v>
+      </c>
+      <c r="K107" t="s">
+        <v>25</v>
+      </c>
+      <c r="L107" t="s">
+        <v>26</v>
+      </c>
+      <c r="M107" t="s">
+        <v>78</v>
+      </c>
+      <c r="N107" t="s">
+        <v>28</v>
+      </c>
+      <c r="O107" t="s">
+        <v>29</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>202</v>
+      </c>
+      <c r="B108" t="s">
+        <v>80</v>
+      </c>
+      <c r="C108" t="s">
+        <v>45</v>
+      </c>
+      <c r="D108" t="s">
+        <v>81</v>
+      </c>
+      <c r="E108" t="s">
+        <v>82</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="J108" t="s">
+        <v>55</v>
+      </c>
+      <c r="K108" t="s">
+        <v>25</v>
+      </c>
+      <c r="L108" t="s">
+        <v>26</v>
+      </c>
+      <c r="M108" t="s">
+        <v>83</v>
+      </c>
+      <c r="N108" t="s">
+        <v>28</v>
+      </c>
+      <c r="O108" t="s">
+        <v>29</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>203</v>
+      </c>
+      <c r="B109" t="s">
+        <v>85</v>
+      </c>
+      <c r="C109" t="s">
+        <v>86</v>
+      </c>
+      <c r="D109" t="s">
+        <v>87</v>
+      </c>
+      <c r="F109" t="s">
+        <v>35</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="J109" t="s">
+        <v>88</v>
+      </c>
+      <c r="K109" t="s">
+        <v>25</v>
+      </c>
+      <c r="L109" t="s">
+        <v>26</v>
+      </c>
+      <c r="M109" t="s">
+        <v>89</v>
+      </c>
+      <c r="N109" t="s">
+        <v>28</v>
+      </c>
+      <c r="O109" t="s">
+        <v>90</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>204</v>
+      </c>
+      <c r="B110" t="s">
+        <v>92</v>
+      </c>
+      <c r="C110" t="s">
+        <v>73</v>
+      </c>
+      <c r="D110" t="s">
+        <v>93</v>
+      </c>
+      <c r="G110" t="s">
+        <v>36</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="K110" t="s">
+        <v>50</v>
+      </c>
+      <c r="L110" t="s">
+        <v>26</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110" t="s">
+        <v>28</v>
+      </c>
+      <c r="O110" t="s">
+        <v>94</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>205</v>
+      </c>
+      <c r="B111" t="s">
+        <v>96</v>
+      </c>
+      <c r="C111" t="s">
+        <v>64</v>
+      </c>
+      <c r="D111" t="s">
+        <v>97</v>
+      </c>
+      <c r="E111" t="s">
+        <v>98</v>
+      </c>
+      <c r="F111" t="s">
+        <v>99</v>
+      </c>
+      <c r="G111" t="s">
+        <v>100</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>206</v>
+      </c>
+      <c r="B112" t="s">
+        <v>102</v>
+      </c>
+      <c r="C112" t="s">
+        <v>32</v>
+      </c>
+      <c r="D112" t="s">
+        <v>103</v>
+      </c>
+      <c r="E112" t="s">
+        <v>104</v>
+      </c>
+      <c r="F112" t="s">
+        <v>105</v>
+      </c>
+      <c r="G112" t="s">
+        <v>106</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>207</v>
+      </c>
+      <c r="B113" t="s">
+        <v>108</v>
+      </c>
+      <c r="C113" t="s">
+        <v>73</v>
+      </c>
+      <c r="D113" t="s">
+        <v>109</v>
+      </c>
+      <c r="F113" t="s">
+        <v>35</v>
+      </c>
+      <c r="G113" t="s">
+        <v>36</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113" t="s">
+        <v>28</v>
+      </c>
+      <c r="O113" t="s">
+        <v>110</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>208</v>
+      </c>
+      <c r="B114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114" t="s">
+        <v>20</v>
+      </c>
+      <c r="F114" t="s">
+        <v>21</v>
+      </c>
+      <c r="G114" t="s">
+        <v>22</v>
+      </c>
+      <c r="H114" t="s">
+        <v>225</v>
+      </c>
+      <c r="J114" t="s">
+        <v>24</v>
+      </c>
+      <c r="K114" t="s">
+        <v>25</v>
+      </c>
+      <c r="L114" t="s">
+        <v>26</v>
+      </c>
+      <c r="M114" t="s">
+        <v>27</v>
+      </c>
+      <c r="N114" t="s">
+        <v>28</v>
+      </c>
+      <c r="O114" t="s">
+        <v>29</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>209</v>
+      </c>
+      <c r="B115" t="s">
+        <v>31</v>
+      </c>
+      <c r="C115" t="s">
+        <v>32</v>
+      </c>
+      <c r="D115" t="s">
+        <v>33</v>
+      </c>
+      <c r="E115" t="s">
+        <v>34</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>210</v>
+      </c>
+      <c r="B116" t="s">
+        <v>39</v>
+      </c>
+      <c r="C116" t="s">
+        <v>40</v>
+      </c>
+      <c r="D116" t="s">
+        <v>41</v>
+      </c>
+      <c r="E116" t="s">
+        <v>42</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>211</v>
+      </c>
+      <c r="B117" t="s">
+        <v>44</v>
+      </c>
+      <c r="C117" t="s">
+        <v>45</v>
+      </c>
+      <c r="D117" t="s">
+        <v>46</v>
+      </c>
+      <c r="E117" t="s">
+        <v>47</v>
+      </c>
+      <c r="F117" t="s">
+        <v>35</v>
+      </c>
+      <c r="G117" t="s">
+        <v>36</v>
+      </c>
+      <c r="H117" t="s">
+        <v>353</v>
+      </c>
+      <c r="J117" t="s">
+        <v>49</v>
+      </c>
+      <c r="K117" t="s">
+        <v>50</v>
+      </c>
+      <c r="L117" t="s">
+        <v>26</v>
+      </c>
+      <c r="M117" t="s">
+        <v>51</v>
+      </c>
+      <c r="N117" t="s">
+        <v>28</v>
+      </c>
+      <c r="O117" t="s">
+        <v>29</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>212</v>
+      </c>
+      <c r="B118" t="s">
+        <v>53</v>
+      </c>
+      <c r="C118" t="s">
+        <v>32</v>
+      </c>
+      <c r="D118" t="s">
+        <v>54</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118" t="s">
+        <v>28</v>
+      </c>
+      <c r="O118" t="s">
+        <v>29</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>213</v>
+      </c>
+      <c r="B119" t="s">
+        <v>57</v>
+      </c>
+      <c r="C119" t="s">
+        <v>45</v>
+      </c>
+      <c r="D119" t="s">
+        <v>58</v>
+      </c>
+      <c r="F119" t="s">
+        <v>35</v>
+      </c>
+      <c r="G119" t="s">
+        <v>36</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="J119" t="s">
+        <v>59</v>
+      </c>
+      <c r="K119" t="s">
+        <v>50</v>
+      </c>
+      <c r="L119" t="s">
+        <v>26</v>
+      </c>
+      <c r="M119" t="s">
+        <v>60</v>
+      </c>
+      <c r="N119" t="s">
+        <v>28</v>
+      </c>
+      <c r="O119" t="s">
+        <v>61</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>214</v>
+      </c>
+      <c r="B120" t="s">
+        <v>63</v>
+      </c>
+      <c r="C120" t="s">
+        <v>64</v>
+      </c>
+      <c r="D120" t="s">
+        <v>65</v>
+      </c>
+      <c r="E120" t="s">
+        <v>66</v>
+      </c>
+      <c r="F120" t="s">
+        <v>35</v>
+      </c>
+      <c r="G120" t="s">
+        <v>36</v>
+      </c>
+      <c r="H120" t="s">
+        <v>354</v>
+      </c>
+      <c r="J120" t="s">
+        <v>68</v>
+      </c>
+      <c r="K120" t="s">
+        <v>50</v>
+      </c>
+      <c r="L120" t="s">
+        <v>26</v>
+      </c>
+      <c r="M120" t="s">
+        <v>69</v>
+      </c>
+      <c r="N120" t="s">
+        <v>28</v>
+      </c>
+      <c r="O120" t="s">
+        <v>70</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>215</v>
+      </c>
+      <c r="B121" t="s">
+        <v>72</v>
+      </c>
+      <c r="C121" t="s">
+        <v>73</v>
+      </c>
+      <c r="D121" t="s">
+        <v>74</v>
+      </c>
+      <c r="E121" t="s">
+        <v>75</v>
+      </c>
+      <c r="F121" t="s">
+        <v>76</v>
+      </c>
+      <c r="G121" t="s">
+        <v>77</v>
+      </c>
+      <c r="H121" t="s">
+        <v>355</v>
+      </c>
+      <c r="J121" t="s">
+        <v>49</v>
+      </c>
+      <c r="K121" t="s">
+        <v>25</v>
+      </c>
+      <c r="L121" t="s">
+        <v>26</v>
+      </c>
+      <c r="M121" t="s">
+        <v>78</v>
+      </c>
+      <c r="N121" t="s">
+        <v>28</v>
+      </c>
+      <c r="O121" t="s">
+        <v>29</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>216</v>
+      </c>
+      <c r="B122" t="s">
+        <v>80</v>
+      </c>
+      <c r="C122" t="s">
+        <v>45</v>
+      </c>
+      <c r="D122" t="s">
+        <v>81</v>
+      </c>
+      <c r="E122" t="s">
+        <v>82</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="J122" t="s">
+        <v>55</v>
+      </c>
+      <c r="K122" t="s">
+        <v>25</v>
+      </c>
+      <c r="L122" t="s">
+        <v>26</v>
+      </c>
+      <c r="M122" t="s">
+        <v>83</v>
+      </c>
+      <c r="N122" t="s">
+        <v>28</v>
+      </c>
+      <c r="O122" t="s">
+        <v>29</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>217</v>
+      </c>
+      <c r="B123" t="s">
+        <v>85</v>
+      </c>
+      <c r="C123" t="s">
+        <v>86</v>
+      </c>
+      <c r="D123" t="s">
+        <v>87</v>
+      </c>
+      <c r="F123" t="s">
+        <v>35</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="J123" t="s">
+        <v>88</v>
+      </c>
+      <c r="K123" t="s">
+        <v>25</v>
+      </c>
+      <c r="L123" t="s">
+        <v>26</v>
+      </c>
+      <c r="M123" t="s">
+        <v>89</v>
+      </c>
+      <c r="N123" t="s">
+        <v>28</v>
+      </c>
+      <c r="O123" t="s">
+        <v>90</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>23</v>
+      </c>
+      <c r="B124" t="s">
+        <v>92</v>
+      </c>
+      <c r="C124" t="s">
+        <v>73</v>
+      </c>
+      <c r="D124" t="s">
+        <v>93</v>
+      </c>
+      <c r="G124" t="s">
+        <v>36</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="K124" t="s">
+        <v>50</v>
+      </c>
+      <c r="L124" t="s">
+        <v>26</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124" t="s">
+        <v>28</v>
+      </c>
+      <c r="O124" t="s">
+        <v>94</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>218</v>
+      </c>
+      <c r="B125" t="s">
+        <v>96</v>
+      </c>
+      <c r="C125" t="s">
+        <v>64</v>
+      </c>
+      <c r="D125" t="s">
+        <v>97</v>
+      </c>
+      <c r="E125" t="s">
+        <v>98</v>
+      </c>
+      <c r="F125" t="s">
+        <v>99</v>
+      </c>
+      <c r="G125" t="s">
+        <v>100</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>219</v>
+      </c>
+      <c r="B126" t="s">
+        <v>102</v>
+      </c>
+      <c r="C126" t="s">
+        <v>32</v>
+      </c>
+      <c r="D126" t="s">
+        <v>103</v>
+      </c>
+      <c r="E126" t="s">
+        <v>104</v>
+      </c>
+      <c r="F126" t="s">
+        <v>105</v>
+      </c>
+      <c r="G126" t="s">
+        <v>106</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>220</v>
+      </c>
+      <c r="B127" t="s">
+        <v>108</v>
+      </c>
+      <c r="C127" t="s">
+        <v>73</v>
+      </c>
+      <c r="D127" t="s">
+        <v>109</v>
+      </c>
+      <c r="F127" t="s">
+        <v>35</v>
+      </c>
+      <c r="G127" t="s">
+        <v>36</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127" t="s">
+        <v>28</v>
+      </c>
+      <c r="O127" t="s">
+        <v>110</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>221</v>
+      </c>
+      <c r="B128" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" t="s">
+        <v>18</v>
+      </c>
+      <c r="D128" t="s">
+        <v>19</v>
+      </c>
+      <c r="E128" t="s">
+        <v>20</v>
+      </c>
+      <c r="F128" t="s">
+        <v>21</v>
+      </c>
+      <c r="G128" t="s">
+        <v>22</v>
+      </c>
+      <c r="H128" t="s">
+        <v>226</v>
+      </c>
+      <c r="J128" t="s">
+        <v>24</v>
+      </c>
+      <c r="K128" t="s">
+        <v>25</v>
+      </c>
+      <c r="L128" t="s">
+        <v>26</v>
+      </c>
+      <c r="M128" t="s">
+        <v>27</v>
+      </c>
+      <c r="N128" t="s">
+        <v>28</v>
+      </c>
+      <c r="O128" t="s">
+        <v>29</v>
+      </c>
+      <c r="P128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>222</v>
+      </c>
+      <c r="B129" t="s">
+        <v>31</v>
+      </c>
+      <c r="C129" t="s">
+        <v>32</v>
+      </c>
+      <c r="D129" t="s">
+        <v>33</v>
+      </c>
+      <c r="E129" t="s">
+        <v>34</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>223</v>
+      </c>
+      <c r="B130" t="s">
+        <v>39</v>
+      </c>
+      <c r="C130" t="s">
+        <v>40</v>
+      </c>
+      <c r="D130" t="s">
+        <v>41</v>
+      </c>
+      <c r="E130" t="s">
+        <v>42</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>224</v>
+      </c>
+      <c r="B131" t="s">
+        <v>44</v>
+      </c>
+      <c r="C131" t="s">
+        <v>45</v>
+      </c>
+      <c r="D131" t="s">
+        <v>46</v>
+      </c>
+      <c r="E131" t="s">
+        <v>47</v>
+      </c>
+      <c r="F131" t="s">
+        <v>35</v>
+      </c>
+      <c r="G131" t="s">
+        <v>36</v>
+      </c>
+      <c r="H131" t="s">
+        <v>356</v>
+      </c>
+      <c r="J131" t="s">
+        <v>49</v>
+      </c>
+      <c r="K131" t="s">
+        <v>50</v>
+      </c>
+      <c r="L131" t="s">
+        <v>26</v>
+      </c>
+      <c r="M131" t="s">
+        <v>51</v>
+      </c>
+      <c r="N131" t="s">
+        <v>28</v>
+      </c>
+      <c r="O131" t="s">
+        <v>29</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>225</v>
+      </c>
+      <c r="B132" t="s">
+        <v>53</v>
+      </c>
+      <c r="C132" t="s">
+        <v>32</v>
+      </c>
+      <c r="D132" t="s">
+        <v>54</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132" t="s">
+        <v>28</v>
+      </c>
+      <c r="O132" t="s">
+        <v>29</v>
+      </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>226</v>
+      </c>
+      <c r="B133" t="s">
+        <v>57</v>
+      </c>
+      <c r="C133" t="s">
+        <v>45</v>
+      </c>
+      <c r="D133" t="s">
+        <v>58</v>
+      </c>
+      <c r="F133" t="s">
+        <v>35</v>
+      </c>
+      <c r="G133" t="s">
+        <v>36</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="J133" t="s">
+        <v>59</v>
+      </c>
+      <c r="K133" t="s">
+        <v>50</v>
+      </c>
+      <c r="L133" t="s">
+        <v>26</v>
+      </c>
+      <c r="M133" t="s">
+        <v>60</v>
+      </c>
+      <c r="N133" t="s">
+        <v>28</v>
+      </c>
+      <c r="O133" t="s">
+        <v>61</v>
+      </c>
+      <c r="P133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>227</v>
+      </c>
+      <c r="B134" t="s">
+        <v>63</v>
+      </c>
+      <c r="C134" t="s">
+        <v>64</v>
+      </c>
+      <c r="D134" t="s">
+        <v>65</v>
+      </c>
+      <c r="E134" t="s">
+        <v>66</v>
+      </c>
+      <c r="F134" t="s">
+        <v>35</v>
+      </c>
+      <c r="G134" t="s">
+        <v>36</v>
+      </c>
+      <c r="H134" t="s">
+        <v>357</v>
+      </c>
+      <c r="J134" t="s">
+        <v>68</v>
+      </c>
+      <c r="K134" t="s">
+        <v>50</v>
+      </c>
+      <c r="L134" t="s">
+        <v>26</v>
+      </c>
+      <c r="M134" t="s">
+        <v>69</v>
+      </c>
+      <c r="N134" t="s">
+        <v>28</v>
+      </c>
+      <c r="O134" t="s">
+        <v>70</v>
+      </c>
+      <c r="P134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>228</v>
+      </c>
+      <c r="B135" t="s">
+        <v>72</v>
+      </c>
+      <c r="C135" t="s">
+        <v>73</v>
+      </c>
+      <c r="D135" t="s">
+        <v>74</v>
+      </c>
+      <c r="E135" t="s">
+        <v>75</v>
+      </c>
+      <c r="F135" t="s">
+        <v>76</v>
+      </c>
+      <c r="G135" t="s">
+        <v>77</v>
+      </c>
+      <c r="H135" t="s">
+        <v>358</v>
+      </c>
+      <c r="J135" t="s">
+        <v>49</v>
+      </c>
+      <c r="K135" t="s">
+        <v>25</v>
+      </c>
+      <c r="L135" t="s">
+        <v>26</v>
+      </c>
+      <c r="M135" t="s">
+        <v>78</v>
+      </c>
+      <c r="N135" t="s">
+        <v>28</v>
+      </c>
+      <c r="O135" t="s">
+        <v>29</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>229</v>
+      </c>
+      <c r="B136" t="s">
+        <v>80</v>
+      </c>
+      <c r="C136" t="s">
+        <v>45</v>
+      </c>
+      <c r="D136" t="s">
+        <v>81</v>
+      </c>
+      <c r="E136" t="s">
+        <v>82</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="J136" t="s">
+        <v>55</v>
+      </c>
+      <c r="K136" t="s">
+        <v>25</v>
+      </c>
+      <c r="L136" t="s">
+        <v>26</v>
+      </c>
+      <c r="M136" t="s">
+        <v>83</v>
+      </c>
+      <c r="N136" t="s">
+        <v>28</v>
+      </c>
+      <c r="O136" t="s">
+        <v>29</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>230</v>
+      </c>
+      <c r="B137" t="s">
+        <v>85</v>
+      </c>
+      <c r="C137" t="s">
+        <v>86</v>
+      </c>
+      <c r="D137" t="s">
+        <v>87</v>
+      </c>
+      <c r="F137" t="s">
+        <v>35</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="J137" t="s">
+        <v>88</v>
+      </c>
+      <c r="K137" t="s">
+        <v>25</v>
+      </c>
+      <c r="L137" t="s">
+        <v>26</v>
+      </c>
+      <c r="M137" t="s">
+        <v>89</v>
+      </c>
+      <c r="N137" t="s">
+        <v>28</v>
+      </c>
+      <c r="O137" t="s">
+        <v>90</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>231</v>
+      </c>
+      <c r="B138" t="s">
+        <v>92</v>
+      </c>
+      <c r="C138" t="s">
+        <v>73</v>
+      </c>
+      <c r="D138" t="s">
+        <v>93</v>
+      </c>
+      <c r="G138" t="s">
+        <v>36</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="K138" t="s">
+        <v>50</v>
+      </c>
+      <c r="L138" t="s">
+        <v>26</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138" t="s">
+        <v>28</v>
+      </c>
+      <c r="O138" t="s">
+        <v>94</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>232</v>
+      </c>
+      <c r="B139" t="s">
+        <v>96</v>
+      </c>
+      <c r="C139" t="s">
+        <v>64</v>
+      </c>
+      <c r="D139" t="s">
+        <v>97</v>
+      </c>
+      <c r="E139" t="s">
+        <v>98</v>
+      </c>
+      <c r="F139" t="s">
+        <v>99</v>
+      </c>
+      <c r="G139" t="s">
+        <v>100</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>233</v>
+      </c>
+      <c r="B140" t="s">
+        <v>102</v>
+      </c>
+      <c r="C140" t="s">
+        <v>32</v>
+      </c>
+      <c r="D140" t="s">
+        <v>103</v>
+      </c>
+      <c r="E140" t="s">
+        <v>104</v>
+      </c>
+      <c r="F140" t="s">
+        <v>105</v>
+      </c>
+      <c r="G140" t="s">
+        <v>106</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>234</v>
+      </c>
+      <c r="B141" t="s">
+        <v>108</v>
+      </c>
+      <c r="C141" t="s">
+        <v>73</v>
+      </c>
+      <c r="D141" t="s">
+        <v>109</v>
+      </c>
+      <c r="F141" t="s">
+        <v>35</v>
+      </c>
+      <c r="G141" t="s">
+        <v>36</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141" t="s">
+        <v>28</v>
+      </c>
+      <c r="O141" t="s">
+        <v>110</v>
+      </c>
+      <c r="P141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>235</v>
+      </c>
+      <c r="B142" t="s">
+        <v>17</v>
+      </c>
+      <c r="C142" t="s">
+        <v>18</v>
+      </c>
+      <c r="D142" t="s">
+        <v>19</v>
+      </c>
+      <c r="E142" t="s">
+        <v>20</v>
+      </c>
+      <c r="F142" t="s">
+        <v>21</v>
+      </c>
+      <c r="G142" t="s">
+        <v>22</v>
+      </c>
+      <c r="H142" t="s">
+        <v>227</v>
+      </c>
+      <c r="J142" t="s">
+        <v>24</v>
+      </c>
+      <c r="K142" t="s">
+        <v>25</v>
+      </c>
+      <c r="L142" t="s">
+        <v>26</v>
+      </c>
+      <c r="M142" t="s">
+        <v>27</v>
+      </c>
+      <c r="N142" t="s">
+        <v>28</v>
+      </c>
+      <c r="O142" t="s">
+        <v>29</v>
+      </c>
+      <c r="P142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>236</v>
+      </c>
+      <c r="B143" t="s">
+        <v>31</v>
+      </c>
+      <c r="C143" t="s">
+        <v>32</v>
+      </c>
+      <c r="D143" t="s">
+        <v>33</v>
+      </c>
+      <c r="E143" t="s">
+        <v>34</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>237</v>
+      </c>
+      <c r="B144" t="s">
+        <v>39</v>
+      </c>
+      <c r="C144" t="s">
+        <v>40</v>
+      </c>
+      <c r="D144" t="s">
+        <v>41</v>
+      </c>
+      <c r="E144" t="s">
+        <v>42</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>238</v>
+      </c>
+      <c r="B145" t="s">
+        <v>44</v>
+      </c>
+      <c r="C145" t="s">
+        <v>45</v>
+      </c>
+      <c r="D145" t="s">
+        <v>46</v>
+      </c>
+      <c r="E145" t="s">
+        <v>47</v>
+      </c>
+      <c r="F145" t="s">
+        <v>35</v>
+      </c>
+      <c r="G145" t="s">
+        <v>36</v>
+      </c>
+      <c r="H145" t="s">
+        <v>359</v>
+      </c>
+      <c r="J145" t="s">
+        <v>49</v>
+      </c>
+      <c r="K145" t="s">
+        <v>50</v>
+      </c>
+      <c r="L145" t="s">
+        <v>26</v>
+      </c>
+      <c r="M145" t="s">
+        <v>51</v>
+      </c>
+      <c r="N145" t="s">
+        <v>28</v>
+      </c>
+      <c r="O145" t="s">
+        <v>29</v>
+      </c>
+      <c r="P145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>239</v>
+      </c>
+      <c r="B146" t="s">
+        <v>53</v>
+      </c>
+      <c r="C146" t="s">
+        <v>32</v>
+      </c>
+      <c r="D146" t="s">
+        <v>54</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146" t="s">
+        <v>28</v>
+      </c>
+      <c r="O146" t="s">
+        <v>29</v>
+      </c>
+      <c r="P146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>240</v>
+      </c>
+      <c r="B147" t="s">
+        <v>57</v>
+      </c>
+      <c r="C147" t="s">
+        <v>45</v>
+      </c>
+      <c r="D147" t="s">
+        <v>58</v>
+      </c>
+      <c r="F147" t="s">
+        <v>35</v>
+      </c>
+      <c r="G147" t="s">
+        <v>36</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="J147" t="s">
+        <v>59</v>
+      </c>
+      <c r="K147" t="s">
+        <v>50</v>
+      </c>
+      <c r="L147" t="s">
+        <v>26</v>
+      </c>
+      <c r="M147" t="s">
+        <v>60</v>
+      </c>
+      <c r="N147" t="s">
+        <v>28</v>
+      </c>
+      <c r="O147" t="s">
+        <v>61</v>
+      </c>
+      <c r="P147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>241</v>
+      </c>
+      <c r="B148" t="s">
+        <v>63</v>
+      </c>
+      <c r="C148" t="s">
+        <v>64</v>
+      </c>
+      <c r="D148" t="s">
+        <v>65</v>
+      </c>
+      <c r="E148" t="s">
+        <v>66</v>
+      </c>
+      <c r="F148" t="s">
+        <v>35</v>
+      </c>
+      <c r="G148" t="s">
+        <v>36</v>
+      </c>
+      <c r="H148" t="s">
+        <v>360</v>
+      </c>
+      <c r="J148" t="s">
+        <v>68</v>
+      </c>
+      <c r="K148" t="s">
+        <v>50</v>
+      </c>
+      <c r="L148" t="s">
+        <v>26</v>
+      </c>
+      <c r="M148" t="s">
+        <v>69</v>
+      </c>
+      <c r="N148" t="s">
+        <v>28</v>
+      </c>
+      <c r="O148" t="s">
+        <v>70</v>
+      </c>
+      <c r="P148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>242</v>
+      </c>
+      <c r="B149" t="s">
+        <v>72</v>
+      </c>
+      <c r="C149" t="s">
+        <v>73</v>
+      </c>
+      <c r="D149" t="s">
+        <v>74</v>
+      </c>
+      <c r="E149" t="s">
+        <v>75</v>
+      </c>
+      <c r="F149" t="s">
+        <v>76</v>
+      </c>
+      <c r="G149" t="s">
+        <v>77</v>
+      </c>
+      <c r="H149" t="s">
+        <v>361</v>
+      </c>
+      <c r="J149" t="s">
+        <v>49</v>
+      </c>
+      <c r="K149" t="s">
+        <v>25</v>
+      </c>
+      <c r="L149" t="s">
+        <v>26</v>
+      </c>
+      <c r="M149" t="s">
+        <v>78</v>
+      </c>
+      <c r="N149" t="s">
+        <v>28</v>
+      </c>
+      <c r="O149" t="s">
+        <v>29</v>
+      </c>
+      <c r="P149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>243</v>
+      </c>
+      <c r="B150" t="s">
+        <v>80</v>
+      </c>
+      <c r="C150" t="s">
+        <v>45</v>
+      </c>
+      <c r="D150" t="s">
+        <v>81</v>
+      </c>
+      <c r="E150" t="s">
+        <v>82</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="J150" t="s">
+        <v>55</v>
+      </c>
+      <c r="K150" t="s">
+        <v>25</v>
+      </c>
+      <c r="L150" t="s">
+        <v>26</v>
+      </c>
+      <c r="M150" t="s">
+        <v>83</v>
+      </c>
+      <c r="N150" t="s">
+        <v>28</v>
+      </c>
+      <c r="O150" t="s">
+        <v>29</v>
+      </c>
+      <c r="P150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>244</v>
+      </c>
+      <c r="B151" t="s">
+        <v>85</v>
+      </c>
+      <c r="C151" t="s">
+        <v>86</v>
+      </c>
+      <c r="D151" t="s">
+        <v>87</v>
+      </c>
+      <c r="F151" t="s">
+        <v>35</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="J151" t="s">
+        <v>88</v>
+      </c>
+      <c r="K151" t="s">
+        <v>25</v>
+      </c>
+      <c r="L151" t="s">
+        <v>26</v>
+      </c>
+      <c r="M151" t="s">
+        <v>89</v>
+      </c>
+      <c r="N151" t="s">
+        <v>28</v>
+      </c>
+      <c r="O151" t="s">
+        <v>90</v>
+      </c>
+      <c r="P151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>245</v>
+      </c>
+      <c r="B152" t="s">
+        <v>92</v>
+      </c>
+      <c r="C152" t="s">
+        <v>73</v>
+      </c>
+      <c r="D152" t="s">
+        <v>93</v>
+      </c>
+      <c r="G152" t="s">
+        <v>36</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="K152" t="s">
+        <v>50</v>
+      </c>
+      <c r="L152" t="s">
+        <v>26</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152" t="s">
+        <v>28</v>
+      </c>
+      <c r="O152" t="s">
+        <v>94</v>
+      </c>
+      <c r="P152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>246</v>
+      </c>
+      <c r="B153" t="s">
+        <v>96</v>
+      </c>
+      <c r="C153" t="s">
+        <v>64</v>
+      </c>
+      <c r="D153" t="s">
+        <v>97</v>
+      </c>
+      <c r="E153" t="s">
+        <v>98</v>
+      </c>
+      <c r="F153" t="s">
+        <v>99</v>
+      </c>
+      <c r="G153" t="s">
+        <v>100</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153">
+        <v>0</v>
+      </c>
+      <c r="P153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>247</v>
+      </c>
+      <c r="B154" t="s">
+        <v>102</v>
+      </c>
+      <c r="C154" t="s">
+        <v>32</v>
+      </c>
+      <c r="D154" t="s">
+        <v>103</v>
+      </c>
+      <c r="E154" t="s">
+        <v>104</v>
+      </c>
+      <c r="F154" t="s">
+        <v>105</v>
+      </c>
+      <c r="G154" t="s">
+        <v>106</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
+      <c r="P154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>248</v>
+      </c>
+      <c r="B155" t="s">
+        <v>108</v>
+      </c>
+      <c r="C155" t="s">
+        <v>73</v>
+      </c>
+      <c r="D155" t="s">
+        <v>109</v>
+      </c>
+      <c r="F155" t="s">
+        <v>35</v>
+      </c>
+      <c r="G155" t="s">
+        <v>36</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155" t="s">
+        <v>28</v>
+      </c>
+      <c r="O155" t="s">
+        <v>110</v>
+      </c>
+      <c r="P155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>249</v>
+      </c>
+      <c r="B156" t="s">
+        <v>17</v>
+      </c>
+      <c r="C156" t="s">
+        <v>18</v>
+      </c>
+      <c r="D156" t="s">
+        <v>19</v>
+      </c>
+      <c r="E156" t="s">
+        <v>20</v>
+      </c>
+      <c r="F156" t="s">
+        <v>21</v>
+      </c>
+      <c r="G156" t="s">
+        <v>22</v>
+      </c>
+      <c r="H156" t="s">
+        <v>228</v>
+      </c>
+      <c r="J156" t="s">
+        <v>24</v>
+      </c>
+      <c r="K156" t="s">
+        <v>25</v>
+      </c>
+      <c r="L156" t="s">
+        <v>26</v>
+      </c>
+      <c r="M156" t="s">
+        <v>27</v>
+      </c>
+      <c r="N156" t="s">
+        <v>28</v>
+      </c>
+      <c r="O156" t="s">
+        <v>29</v>
+      </c>
+      <c r="P156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>250</v>
+      </c>
+      <c r="B157" t="s">
+        <v>31</v>
+      </c>
+      <c r="C157" t="s">
+        <v>32</v>
+      </c>
+      <c r="D157" t="s">
+        <v>33</v>
+      </c>
+      <c r="E157" t="s">
+        <v>34</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+      <c r="O157">
+        <v>0</v>
+      </c>
+      <c r="P157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>251</v>
+      </c>
+      <c r="B158" t="s">
+        <v>39</v>
+      </c>
+      <c r="C158" t="s">
+        <v>40</v>
+      </c>
+      <c r="D158" t="s">
+        <v>41</v>
+      </c>
+      <c r="E158" t="s">
+        <v>42</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+      <c r="O158">
+        <v>0</v>
+      </c>
+      <c r="P158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>252</v>
+      </c>
+      <c r="B159" t="s">
+        <v>44</v>
+      </c>
+      <c r="C159" t="s">
+        <v>45</v>
+      </c>
+      <c r="D159" t="s">
+        <v>46</v>
+      </c>
+      <c r="E159" t="s">
+        <v>47</v>
+      </c>
+      <c r="F159" t="s">
+        <v>35</v>
+      </c>
+      <c r="G159" t="s">
+        <v>36</v>
+      </c>
+      <c r="H159" t="s">
+        <v>362</v>
+      </c>
+      <c r="J159" t="s">
+        <v>49</v>
+      </c>
+      <c r="K159" t="s">
+        <v>50</v>
+      </c>
+      <c r="L159" t="s">
+        <v>26</v>
+      </c>
+      <c r="M159" t="s">
+        <v>51</v>
+      </c>
+      <c r="N159" t="s">
+        <v>28</v>
+      </c>
+      <c r="O159" t="s">
+        <v>29</v>
+      </c>
+      <c r="P159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>253</v>
+      </c>
+      <c r="B160" t="s">
+        <v>53</v>
+      </c>
+      <c r="C160" t="s">
+        <v>32</v>
+      </c>
+      <c r="D160" t="s">
+        <v>54</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160" t="s">
+        <v>28</v>
+      </c>
+      <c r="O160" t="s">
+        <v>29</v>
+      </c>
+      <c r="P160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>254</v>
+      </c>
+      <c r="B161" t="s">
+        <v>57</v>
+      </c>
+      <c r="C161" t="s">
+        <v>45</v>
+      </c>
+      <c r="D161" t="s">
+        <v>58</v>
+      </c>
+      <c r="F161" t="s">
+        <v>35</v>
+      </c>
+      <c r="G161" t="s">
+        <v>36</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="J161" t="s">
+        <v>59</v>
+      </c>
+      <c r="K161" t="s">
+        <v>50</v>
+      </c>
+      <c r="L161" t="s">
+        <v>26</v>
+      </c>
+      <c r="M161" t="s">
+        <v>60</v>
+      </c>
+      <c r="N161" t="s">
+        <v>28</v>
+      </c>
+      <c r="O161" t="s">
+        <v>61</v>
+      </c>
+      <c r="P161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>255</v>
+      </c>
+      <c r="B162" t="s">
+        <v>63</v>
+      </c>
+      <c r="C162" t="s">
+        <v>64</v>
+      </c>
+      <c r="D162" t="s">
+        <v>65</v>
+      </c>
+      <c r="E162" t="s">
+        <v>66</v>
+      </c>
+      <c r="F162" t="s">
+        <v>35</v>
+      </c>
+      <c r="G162" t="s">
+        <v>36</v>
+      </c>
+      <c r="H162" t="s">
+        <v>363</v>
+      </c>
+      <c r="J162" t="s">
+        <v>68</v>
+      </c>
+      <c r="K162" t="s">
+        <v>50</v>
+      </c>
+      <c r="L162" t="s">
+        <v>26</v>
+      </c>
+      <c r="M162" t="s">
+        <v>69</v>
+      </c>
+      <c r="N162" t="s">
+        <v>28</v>
+      </c>
+      <c r="O162" t="s">
+        <v>70</v>
+      </c>
+      <c r="P162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>256</v>
+      </c>
+      <c r="B163" t="s">
+        <v>72</v>
+      </c>
+      <c r="C163" t="s">
+        <v>73</v>
+      </c>
+      <c r="D163" t="s">
+        <v>74</v>
+      </c>
+      <c r="E163" t="s">
+        <v>75</v>
+      </c>
+      <c r="F163" t="s">
+        <v>76</v>
+      </c>
+      <c r="G163" t="s">
+        <v>77</v>
+      </c>
+      <c r="H163" t="s">
+        <v>364</v>
+      </c>
+      <c r="J163" t="s">
+        <v>49</v>
+      </c>
+      <c r="K163" t="s">
+        <v>25</v>
+      </c>
+      <c r="L163" t="s">
+        <v>26</v>
+      </c>
+      <c r="M163" t="s">
+        <v>78</v>
+      </c>
+      <c r="N163" t="s">
+        <v>28</v>
+      </c>
+      <c r="O163" t="s">
+        <v>29</v>
+      </c>
+      <c r="P163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>257</v>
+      </c>
+      <c r="B164" t="s">
+        <v>80</v>
+      </c>
+      <c r="C164" t="s">
+        <v>45</v>
+      </c>
+      <c r="D164" t="s">
+        <v>81</v>
+      </c>
+      <c r="E164" t="s">
+        <v>82</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="J164" t="s">
+        <v>55</v>
+      </c>
+      <c r="K164" t="s">
+        <v>25</v>
+      </c>
+      <c r="L164" t="s">
+        <v>26</v>
+      </c>
+      <c r="M164" t="s">
+        <v>83</v>
+      </c>
+      <c r="N164" t="s">
+        <v>28</v>
+      </c>
+      <c r="O164" t="s">
+        <v>29</v>
+      </c>
+      <c r="P164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>258</v>
+      </c>
+      <c r="B165" t="s">
+        <v>85</v>
+      </c>
+      <c r="C165" t="s">
+        <v>86</v>
+      </c>
+      <c r="D165" t="s">
+        <v>87</v>
+      </c>
+      <c r="F165" t="s">
+        <v>35</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="J165" t="s">
+        <v>88</v>
+      </c>
+      <c r="K165" t="s">
+        <v>25</v>
+      </c>
+      <c r="L165" t="s">
+        <v>26</v>
+      </c>
+      <c r="M165" t="s">
+        <v>89</v>
+      </c>
+      <c r="N165" t="s">
+        <v>28</v>
+      </c>
+      <c r="O165" t="s">
+        <v>90</v>
+      </c>
+      <c r="P165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>259</v>
+      </c>
+      <c r="B166" t="s">
+        <v>92</v>
+      </c>
+      <c r="C166" t="s">
+        <v>73</v>
+      </c>
+      <c r="D166" t="s">
+        <v>93</v>
+      </c>
+      <c r="G166" t="s">
+        <v>36</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="K166" t="s">
+        <v>50</v>
+      </c>
+      <c r="L166" t="s">
+        <v>26</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166" t="s">
+        <v>28</v>
+      </c>
+      <c r="O166" t="s">
+        <v>94</v>
+      </c>
+      <c r="P166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>260</v>
+      </c>
+      <c r="B167" t="s">
+        <v>96</v>
+      </c>
+      <c r="C167" t="s">
+        <v>64</v>
+      </c>
+      <c r="D167" t="s">
+        <v>97</v>
+      </c>
+      <c r="E167" t="s">
+        <v>98</v>
+      </c>
+      <c r="F167" t="s">
+        <v>99</v>
+      </c>
+      <c r="G167" t="s">
+        <v>100</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167">
+        <v>0</v>
+      </c>
+      <c r="P167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>261</v>
+      </c>
+      <c r="B168" t="s">
+        <v>102</v>
+      </c>
+      <c r="C168" t="s">
+        <v>32</v>
+      </c>
+      <c r="D168" t="s">
+        <v>103</v>
+      </c>
+      <c r="E168" t="s">
+        <v>104</v>
+      </c>
+      <c r="F168" t="s">
+        <v>105</v>
+      </c>
+      <c r="G168" t="s">
+        <v>106</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+      <c r="O168">
+        <v>0</v>
+      </c>
+      <c r="P168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>262</v>
+      </c>
+      <c r="B169" t="s">
+        <v>108</v>
+      </c>
+      <c r="C169" t="s">
+        <v>73</v>
+      </c>
+      <c r="D169" t="s">
+        <v>109</v>
+      </c>
+      <c r="F169" t="s">
+        <v>35</v>
+      </c>
+      <c r="G169" t="s">
+        <v>36</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169" t="s">
+        <v>28</v>
+      </c>
+      <c r="O169" t="s">
+        <v>110</v>
+      </c>
+      <c r="P169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>263</v>
+      </c>
+      <c r="B170" t="s">
+        <v>17</v>
+      </c>
+      <c r="C170" t="s">
+        <v>18</v>
+      </c>
+      <c r="D170" t="s">
+        <v>19</v>
+      </c>
+      <c r="E170" t="s">
+        <v>20</v>
+      </c>
+      <c r="F170" t="s">
+        <v>21</v>
+      </c>
+      <c r="G170" t="s">
+        <v>22</v>
+      </c>
+      <c r="H170" t="s">
+        <v>229</v>
+      </c>
+      <c r="J170" t="s">
+        <v>24</v>
+      </c>
+      <c r="K170" t="s">
+        <v>25</v>
+      </c>
+      <c r="L170" t="s">
+        <v>26</v>
+      </c>
+      <c r="M170" t="s">
+        <v>27</v>
+      </c>
+      <c r="N170" t="s">
+        <v>28</v>
+      </c>
+      <c r="O170" t="s">
+        <v>29</v>
+      </c>
+      <c r="P170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>264</v>
+      </c>
+      <c r="B171" t="s">
+        <v>31</v>
+      </c>
+      <c r="C171" t="s">
+        <v>32</v>
+      </c>
+      <c r="D171" t="s">
+        <v>33</v>
+      </c>
+      <c r="E171" t="s">
+        <v>34</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+      <c r="O171">
+        <v>0</v>
+      </c>
+      <c r="P171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>265</v>
+      </c>
+      <c r="B172" t="s">
+        <v>39</v>
+      </c>
+      <c r="C172" t="s">
+        <v>40</v>
+      </c>
+      <c r="D172" t="s">
+        <v>41</v>
+      </c>
+      <c r="E172" t="s">
+        <v>42</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172">
+        <v>0</v>
+      </c>
+      <c r="P172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>266</v>
+      </c>
+      <c r="B173" t="s">
+        <v>44</v>
+      </c>
+      <c r="C173" t="s">
+        <v>45</v>
+      </c>
+      <c r="D173" t="s">
+        <v>46</v>
+      </c>
+      <c r="E173" t="s">
+        <v>47</v>
+      </c>
+      <c r="F173" t="s">
+        <v>35</v>
+      </c>
+      <c r="G173" t="s">
+        <v>36</v>
+      </c>
+      <c r="H173" t="s">
+        <v>365</v>
+      </c>
+      <c r="J173" t="s">
+        <v>49</v>
+      </c>
+      <c r="K173" t="s">
+        <v>50</v>
+      </c>
+      <c r="L173" t="s">
+        <v>26</v>
+      </c>
+      <c r="M173" t="s">
+        <v>51</v>
+      </c>
+      <c r="N173" t="s">
+        <v>28</v>
+      </c>
+      <c r="O173" t="s">
+        <v>29</v>
+      </c>
+      <c r="P173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>267</v>
+      </c>
+      <c r="B174" t="s">
+        <v>53</v>
+      </c>
+      <c r="C174" t="s">
+        <v>32</v>
+      </c>
+      <c r="D174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174" t="s">
+        <v>28</v>
+      </c>
+      <c r="O174" t="s">
+        <v>29</v>
+      </c>
+      <c r="P174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>268</v>
+      </c>
+      <c r="B175" t="s">
+        <v>57</v>
+      </c>
+      <c r="C175" t="s">
+        <v>45</v>
+      </c>
+      <c r="D175" t="s">
+        <v>58</v>
+      </c>
+      <c r="F175" t="s">
+        <v>35</v>
+      </c>
+      <c r="G175" t="s">
+        <v>36</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="J175" t="s">
+        <v>59</v>
+      </c>
+      <c r="K175" t="s">
+        <v>50</v>
+      </c>
+      <c r="L175" t="s">
+        <v>26</v>
+      </c>
+      <c r="M175" t="s">
+        <v>60</v>
+      </c>
+      <c r="N175" t="s">
+        <v>28</v>
+      </c>
+      <c r="O175" t="s">
+        <v>61</v>
+      </c>
+      <c r="P175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>269</v>
+      </c>
+      <c r="B176" t="s">
+        <v>63</v>
+      </c>
+      <c r="C176" t="s">
+        <v>64</v>
+      </c>
+      <c r="D176" t="s">
+        <v>65</v>
+      </c>
+      <c r="E176" t="s">
+        <v>66</v>
+      </c>
+      <c r="F176" t="s">
+        <v>35</v>
+      </c>
+      <c r="G176" t="s">
+        <v>36</v>
+      </c>
+      <c r="H176" t="s">
+        <v>366</v>
+      </c>
+      <c r="J176" t="s">
+        <v>68</v>
+      </c>
+      <c r="K176" t="s">
+        <v>50</v>
+      </c>
+      <c r="L176" t="s">
+        <v>26</v>
+      </c>
+      <c r="M176" t="s">
+        <v>69</v>
+      </c>
+      <c r="N176" t="s">
+        <v>28</v>
+      </c>
+      <c r="O176" t="s">
+        <v>70</v>
+      </c>
+      <c r="P176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>270</v>
+      </c>
+      <c r="B177" t="s">
+        <v>72</v>
+      </c>
+      <c r="C177" t="s">
+        <v>73</v>
+      </c>
+      <c r="D177" t="s">
+        <v>74</v>
+      </c>
+      <c r="E177" t="s">
+        <v>75</v>
+      </c>
+      <c r="F177" t="s">
+        <v>76</v>
+      </c>
+      <c r="G177" t="s">
+        <v>77</v>
+      </c>
+      <c r="H177" t="s">
+        <v>367</v>
+      </c>
+      <c r="J177" t="s">
+        <v>49</v>
+      </c>
+      <c r="K177" t="s">
+        <v>25</v>
+      </c>
+      <c r="L177" t="s">
+        <v>26</v>
+      </c>
+      <c r="M177" t="s">
+        <v>78</v>
+      </c>
+      <c r="N177" t="s">
+        <v>28</v>
+      </c>
+      <c r="O177" t="s">
+        <v>29</v>
+      </c>
+      <c r="P177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>271</v>
+      </c>
+      <c r="B178" t="s">
+        <v>80</v>
+      </c>
+      <c r="C178" t="s">
+        <v>45</v>
+      </c>
+      <c r="D178" t="s">
+        <v>81</v>
+      </c>
+      <c r="E178" t="s">
+        <v>82</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="J178" t="s">
+        <v>55</v>
+      </c>
+      <c r="K178" t="s">
+        <v>25</v>
+      </c>
+      <c r="L178" t="s">
+        <v>26</v>
+      </c>
+      <c r="M178" t="s">
+        <v>83</v>
+      </c>
+      <c r="N178" t="s">
+        <v>28</v>
+      </c>
+      <c r="O178" t="s">
+        <v>29</v>
+      </c>
+      <c r="P178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>272</v>
+      </c>
+      <c r="B179" t="s">
+        <v>85</v>
+      </c>
+      <c r="C179" t="s">
+        <v>86</v>
+      </c>
+      <c r="D179" t="s">
+        <v>87</v>
+      </c>
+      <c r="F179" t="s">
+        <v>35</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="J179" t="s">
+        <v>88</v>
+      </c>
+      <c r="K179" t="s">
+        <v>25</v>
+      </c>
+      <c r="L179" t="s">
+        <v>26</v>
+      </c>
+      <c r="M179" t="s">
+        <v>89</v>
+      </c>
+      <c r="N179" t="s">
+        <v>28</v>
+      </c>
+      <c r="O179" t="s">
+        <v>90</v>
+      </c>
+      <c r="P179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>273</v>
+      </c>
+      <c r="B180" t="s">
+        <v>92</v>
+      </c>
+      <c r="C180" t="s">
+        <v>73</v>
+      </c>
+      <c r="D180" t="s">
+        <v>93</v>
+      </c>
+      <c r="G180" t="s">
+        <v>36</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="K180" t="s">
+        <v>50</v>
+      </c>
+      <c r="L180" t="s">
+        <v>26</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180" t="s">
+        <v>28</v>
+      </c>
+      <c r="O180" t="s">
+        <v>94</v>
+      </c>
+      <c r="P180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>274</v>
+      </c>
+      <c r="B181" t="s">
+        <v>96</v>
+      </c>
+      <c r="C181" t="s">
+        <v>64</v>
+      </c>
+      <c r="D181" t="s">
+        <v>97</v>
+      </c>
+      <c r="E181" t="s">
+        <v>98</v>
+      </c>
+      <c r="F181" t="s">
+        <v>99</v>
+      </c>
+      <c r="G181" t="s">
+        <v>100</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+      <c r="O181">
+        <v>0</v>
+      </c>
+      <c r="P181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>275</v>
+      </c>
+      <c r="B182" t="s">
+        <v>102</v>
+      </c>
+      <c r="C182" t="s">
+        <v>32</v>
+      </c>
+      <c r="D182" t="s">
+        <v>103</v>
+      </c>
+      <c r="E182" t="s">
+        <v>104</v>
+      </c>
+      <c r="F182" t="s">
+        <v>105</v>
+      </c>
+      <c r="G182" t="s">
+        <v>106</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>0</v>
+      </c>
+      <c r="O182">
+        <v>0</v>
+      </c>
+      <c r="P182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>276</v>
+      </c>
+      <c r="B183" t="s">
+        <v>108</v>
+      </c>
+      <c r="C183" t="s">
+        <v>73</v>
+      </c>
+      <c r="D183" t="s">
+        <v>109</v>
+      </c>
+      <c r="F183" t="s">
+        <v>35</v>
+      </c>
+      <c r="G183" t="s">
+        <v>36</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183" t="s">
+        <v>28</v>
+      </c>
+      <c r="O183" t="s">
+        <v>110</v>
+      </c>
+      <c r="P183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>277</v>
+      </c>
+      <c r="B184" t="s">
+        <v>17</v>
+      </c>
+      <c r="C184" t="s">
+        <v>18</v>
+      </c>
+      <c r="D184" t="s">
+        <v>19</v>
+      </c>
+      <c r="E184" t="s">
+        <v>20</v>
+      </c>
+      <c r="F184" t="s">
+        <v>21</v>
+      </c>
+      <c r="G184" t="s">
+        <v>22</v>
+      </c>
+      <c r="H184" t="s">
+        <v>230</v>
+      </c>
+      <c r="J184" t="s">
+        <v>24</v>
+      </c>
+      <c r="K184" t="s">
+        <v>25</v>
+      </c>
+      <c r="L184" t="s">
+        <v>26</v>
+      </c>
+      <c r="M184" t="s">
+        <v>27</v>
+      </c>
+      <c r="N184" t="s">
+        <v>28</v>
+      </c>
+      <c r="O184" t="s">
+        <v>29</v>
+      </c>
+      <c r="P184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>278</v>
+      </c>
+      <c r="B185" t="s">
+        <v>31</v>
+      </c>
+      <c r="C185" t="s">
+        <v>32</v>
+      </c>
+      <c r="D185" t="s">
+        <v>33</v>
+      </c>
+      <c r="E185" t="s">
+        <v>34</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <v>0</v>
+      </c>
+      <c r="O185">
+        <v>0</v>
+      </c>
+      <c r="P185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>279</v>
+      </c>
+      <c r="B186" t="s">
+        <v>39</v>
+      </c>
+      <c r="C186" t="s">
+        <v>40</v>
+      </c>
+      <c r="D186" t="s">
+        <v>41</v>
+      </c>
+      <c r="E186" t="s">
+        <v>42</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>0</v>
+      </c>
+      <c r="O186">
+        <v>0</v>
+      </c>
+      <c r="P186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>280</v>
+      </c>
+      <c r="B187" t="s">
+        <v>44</v>
+      </c>
+      <c r="C187" t="s">
+        <v>45</v>
+      </c>
+      <c r="D187" t="s">
+        <v>46</v>
+      </c>
+      <c r="E187" t="s">
+        <v>47</v>
+      </c>
+      <c r="F187" t="s">
+        <v>35</v>
+      </c>
+      <c r="G187" t="s">
+        <v>36</v>
+      </c>
+      <c r="H187" t="s">
+        <v>368</v>
+      </c>
+      <c r="J187" t="s">
+        <v>49</v>
+      </c>
+      <c r="K187" t="s">
+        <v>50</v>
+      </c>
+      <c r="L187" t="s">
+        <v>26</v>
+      </c>
+      <c r="M187" t="s">
+        <v>51</v>
+      </c>
+      <c r="N187" t="s">
+        <v>28</v>
+      </c>
+      <c r="O187" t="s">
+        <v>29</v>
+      </c>
+      <c r="P187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>281</v>
+      </c>
+      <c r="B188" t="s">
+        <v>53</v>
+      </c>
+      <c r="C188" t="s">
+        <v>32</v>
+      </c>
+      <c r="D188" t="s">
+        <v>54</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188" t="s">
+        <v>28</v>
+      </c>
+      <c r="O188" t="s">
+        <v>29</v>
+      </c>
+      <c r="P188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>282</v>
+      </c>
+      <c r="B189" t="s">
+        <v>57</v>
+      </c>
+      <c r="C189" t="s">
+        <v>45</v>
+      </c>
+      <c r="D189" t="s">
+        <v>58</v>
+      </c>
+      <c r="F189" t="s">
+        <v>35</v>
+      </c>
+      <c r="G189" t="s">
+        <v>36</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="J189" t="s">
+        <v>59</v>
+      </c>
+      <c r="K189" t="s">
+        <v>50</v>
+      </c>
+      <c r="L189" t="s">
+        <v>26</v>
+      </c>
+      <c r="M189" t="s">
+        <v>60</v>
+      </c>
+      <c r="N189" t="s">
+        <v>28</v>
+      </c>
+      <c r="O189" t="s">
+        <v>61</v>
+      </c>
+      <c r="P189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>283</v>
+      </c>
+      <c r="B190" t="s">
+        <v>63</v>
+      </c>
+      <c r="C190" t="s">
+        <v>64</v>
+      </c>
+      <c r="D190" t="s">
+        <v>65</v>
+      </c>
+      <c r="E190" t="s">
+        <v>66</v>
+      </c>
+      <c r="F190" t="s">
+        <v>35</v>
+      </c>
+      <c r="G190" t="s">
+        <v>36</v>
+      </c>
+      <c r="H190" t="s">
+        <v>369</v>
+      </c>
+      <c r="J190" t="s">
+        <v>68</v>
+      </c>
+      <c r="K190" t="s">
+        <v>50</v>
+      </c>
+      <c r="L190" t="s">
+        <v>26</v>
+      </c>
+      <c r="M190" t="s">
+        <v>69</v>
+      </c>
+      <c r="N190" t="s">
+        <v>28</v>
+      </c>
+      <c r="O190" t="s">
+        <v>70</v>
+      </c>
+      <c r="P190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>284</v>
+      </c>
+      <c r="B191" t="s">
+        <v>72</v>
+      </c>
+      <c r="C191" t="s">
+        <v>73</v>
+      </c>
+      <c r="D191" t="s">
+        <v>74</v>
+      </c>
+      <c r="E191" t="s">
+        <v>75</v>
+      </c>
+      <c r="F191" t="s">
+        <v>76</v>
+      </c>
+      <c r="G191" t="s">
+        <v>77</v>
+      </c>
+      <c r="H191" t="s">
+        <v>370</v>
+      </c>
+      <c r="J191" t="s">
+        <v>49</v>
+      </c>
+      <c r="K191" t="s">
+        <v>25</v>
+      </c>
+      <c r="L191" t="s">
+        <v>26</v>
+      </c>
+      <c r="M191" t="s">
+        <v>78</v>
+      </c>
+      <c r="N191" t="s">
+        <v>28</v>
+      </c>
+      <c r="O191" t="s">
+        <v>29</v>
+      </c>
+      <c r="P191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>285</v>
+      </c>
+      <c r="B192" t="s">
+        <v>80</v>
+      </c>
+      <c r="C192" t="s">
+        <v>45</v>
+      </c>
+      <c r="D192" t="s">
+        <v>81</v>
+      </c>
+      <c r="E192" t="s">
+        <v>82</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="J192" t="s">
+        <v>55</v>
+      </c>
+      <c r="K192" t="s">
+        <v>25</v>
+      </c>
+      <c r="L192" t="s">
+        <v>26</v>
+      </c>
+      <c r="M192" t="s">
+        <v>83</v>
+      </c>
+      <c r="N192" t="s">
+        <v>28</v>
+      </c>
+      <c r="O192" t="s">
+        <v>29</v>
+      </c>
+      <c r="P192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>286</v>
+      </c>
+      <c r="B193" t="s">
+        <v>85</v>
+      </c>
+      <c r="C193" t="s">
+        <v>86</v>
+      </c>
+      <c r="D193" t="s">
+        <v>87</v>
+      </c>
+      <c r="F193" t="s">
+        <v>35</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="J193" t="s">
+        <v>88</v>
+      </c>
+      <c r="K193" t="s">
+        <v>25</v>
+      </c>
+      <c r="L193" t="s">
+        <v>26</v>
+      </c>
+      <c r="M193" t="s">
+        <v>89</v>
+      </c>
+      <c r="N193" t="s">
+        <v>28</v>
+      </c>
+      <c r="O193" t="s">
+        <v>90</v>
+      </c>
+      <c r="P193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>287</v>
+      </c>
+      <c r="B194" t="s">
+        <v>92</v>
+      </c>
+      <c r="C194" t="s">
+        <v>73</v>
+      </c>
+      <c r="D194" t="s">
+        <v>93</v>
+      </c>
+      <c r="G194" t="s">
+        <v>36</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="K194" t="s">
+        <v>50</v>
+      </c>
+      <c r="L194" t="s">
+        <v>26</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194" t="s">
+        <v>28</v>
+      </c>
+      <c r="O194" t="s">
+        <v>94</v>
+      </c>
+      <c r="P194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>288</v>
+      </c>
+      <c r="B195" t="s">
+        <v>96</v>
+      </c>
+      <c r="C195" t="s">
+        <v>64</v>
+      </c>
+      <c r="D195" t="s">
+        <v>97</v>
+      </c>
+      <c r="E195" t="s">
+        <v>98</v>
+      </c>
+      <c r="F195" t="s">
+        <v>99</v>
+      </c>
+      <c r="G195" t="s">
+        <v>100</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>0</v>
+      </c>
+      <c r="O195">
+        <v>0</v>
+      </c>
+      <c r="P195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>289</v>
+      </c>
+      <c r="B196" t="s">
+        <v>102</v>
+      </c>
+      <c r="C196" t="s">
+        <v>32</v>
+      </c>
+      <c r="D196" t="s">
+        <v>103</v>
+      </c>
+      <c r="E196" t="s">
+        <v>104</v>
+      </c>
+      <c r="F196" t="s">
+        <v>105</v>
+      </c>
+      <c r="G196" t="s">
+        <v>106</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>0</v>
+      </c>
+      <c r="O196">
+        <v>0</v>
+      </c>
+      <c r="P196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>290</v>
+      </c>
+      <c r="B197" t="s">
+        <v>108</v>
+      </c>
+      <c r="C197" t="s">
+        <v>73</v>
+      </c>
+      <c r="D197" t="s">
+        <v>109</v>
+      </c>
+      <c r="F197" t="s">
+        <v>35</v>
+      </c>
+      <c r="G197" t="s">
+        <v>36</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197" t="s">
+        <v>28</v>
+      </c>
+      <c r="O197" t="s">
+        <v>110</v>
+      </c>
+      <c r="P197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>291</v>
+      </c>
+      <c r="B198" t="s">
+        <v>17</v>
+      </c>
+      <c r="C198" t="s">
+        <v>18</v>
+      </c>
+      <c r="D198" t="s">
+        <v>19</v>
+      </c>
+      <c r="E198" t="s">
+        <v>20</v>
+      </c>
+      <c r="F198" t="s">
+        <v>21</v>
+      </c>
+      <c r="G198" t="s">
+        <v>22</v>
+      </c>
+      <c r="H198" t="s">
+        <v>231</v>
+      </c>
+      <c r="J198" t="s">
+        <v>24</v>
+      </c>
+      <c r="K198" t="s">
+        <v>25</v>
+      </c>
+      <c r="L198" t="s">
+        <v>26</v>
+      </c>
+      <c r="M198" t="s">
+        <v>27</v>
+      </c>
+      <c r="N198" t="s">
+        <v>28</v>
+      </c>
+      <c r="O198" t="s">
+        <v>29</v>
+      </c>
+      <c r="P198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>292</v>
+      </c>
+      <c r="B199" t="s">
+        <v>31</v>
+      </c>
+      <c r="C199" t="s">
+        <v>32</v>
+      </c>
+      <c r="D199" t="s">
+        <v>33</v>
+      </c>
+      <c r="E199" t="s">
+        <v>34</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>0</v>
+      </c>
+      <c r="O199">
+        <v>0</v>
+      </c>
+      <c r="P199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>293</v>
+      </c>
+      <c r="B200" t="s">
+        <v>39</v>
+      </c>
+      <c r="C200" t="s">
+        <v>40</v>
+      </c>
+      <c r="D200" t="s">
+        <v>41</v>
+      </c>
+      <c r="E200" t="s">
+        <v>42</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>0</v>
+      </c>
+      <c r="O200">
+        <v>0</v>
+      </c>
+      <c r="P200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>294</v>
+      </c>
+      <c r="B201" t="s">
+        <v>44</v>
+      </c>
+      <c r="C201" t="s">
+        <v>45</v>
+      </c>
+      <c r="D201" t="s">
+        <v>46</v>
+      </c>
+      <c r="E201" t="s">
+        <v>47</v>
+      </c>
+      <c r="F201" t="s">
+        <v>35</v>
+      </c>
+      <c r="G201" t="s">
+        <v>36</v>
+      </c>
+      <c r="H201" t="s">
+        <v>371</v>
+      </c>
+      <c r="J201" t="s">
+        <v>49</v>
+      </c>
+      <c r="K201" t="s">
+        <v>50</v>
+      </c>
+      <c r="L201" t="s">
+        <v>26</v>
+      </c>
+      <c r="M201" t="s">
+        <v>51</v>
+      </c>
+      <c r="N201" t="s">
+        <v>28</v>
+      </c>
+      <c r="O201" t="s">
+        <v>29</v>
+      </c>
+      <c r="P201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>295</v>
+      </c>
+      <c r="B202" t="s">
+        <v>53</v>
+      </c>
+      <c r="C202" t="s">
+        <v>32</v>
+      </c>
+      <c r="D202" t="s">
+        <v>54</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202" t="s">
+        <v>28</v>
+      </c>
+      <c r="O202" t="s">
+        <v>29</v>
+      </c>
+      <c r="P202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>296</v>
+      </c>
+      <c r="B203" t="s">
+        <v>57</v>
+      </c>
+      <c r="C203" t="s">
+        <v>45</v>
+      </c>
+      <c r="D203" t="s">
+        <v>58</v>
+      </c>
+      <c r="F203" t="s">
+        <v>35</v>
+      </c>
+      <c r="G203" t="s">
+        <v>36</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="J203" t="s">
+        <v>59</v>
+      </c>
+      <c r="K203" t="s">
+        <v>50</v>
+      </c>
+      <c r="L203" t="s">
+        <v>26</v>
+      </c>
+      <c r="M203" t="s">
+        <v>60</v>
+      </c>
+      <c r="N203" t="s">
+        <v>28</v>
+      </c>
+      <c r="O203" t="s">
+        <v>61</v>
+      </c>
+      <c r="P203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>297</v>
+      </c>
+      <c r="B204" t="s">
+        <v>63</v>
+      </c>
+      <c r="C204" t="s">
+        <v>64</v>
+      </c>
+      <c r="D204" t="s">
+        <v>65</v>
+      </c>
+      <c r="E204" t="s">
+        <v>66</v>
+      </c>
+      <c r="F204" t="s">
+        <v>35</v>
+      </c>
+      <c r="G204" t="s">
+        <v>36</v>
+      </c>
+      <c r="H204" t="s">
+        <v>372</v>
+      </c>
+      <c r="J204" t="s">
+        <v>68</v>
+      </c>
+      <c r="K204" t="s">
+        <v>50</v>
+      </c>
+      <c r="L204" t="s">
+        <v>26</v>
+      </c>
+      <c r="M204" t="s">
+        <v>69</v>
+      </c>
+      <c r="N204" t="s">
+        <v>28</v>
+      </c>
+      <c r="O204" t="s">
+        <v>70</v>
+      </c>
+      <c r="P204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>298</v>
+      </c>
+      <c r="B205" t="s">
+        <v>72</v>
+      </c>
+      <c r="C205" t="s">
+        <v>73</v>
+      </c>
+      <c r="D205" t="s">
+        <v>74</v>
+      </c>
+      <c r="E205" t="s">
+        <v>75</v>
+      </c>
+      <c r="F205" t="s">
+        <v>76</v>
+      </c>
+      <c r="G205" t="s">
+        <v>77</v>
+      </c>
+      <c r="H205" t="s">
+        <v>373</v>
+      </c>
+      <c r="J205" t="s">
+        <v>49</v>
+      </c>
+      <c r="K205" t="s">
+        <v>25</v>
+      </c>
+      <c r="L205" t="s">
+        <v>26</v>
+      </c>
+      <c r="M205" t="s">
+        <v>78</v>
+      </c>
+      <c r="N205" t="s">
+        <v>28</v>
+      </c>
+      <c r="O205" t="s">
+        <v>29</v>
+      </c>
+      <c r="P205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>299</v>
+      </c>
+      <c r="B206" t="s">
+        <v>80</v>
+      </c>
+      <c r="C206" t="s">
+        <v>45</v>
+      </c>
+      <c r="D206" t="s">
+        <v>81</v>
+      </c>
+      <c r="E206" t="s">
+        <v>82</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="J206" t="s">
+        <v>55</v>
+      </c>
+      <c r="K206" t="s">
+        <v>25</v>
+      </c>
+      <c r="L206" t="s">
+        <v>26</v>
+      </c>
+      <c r="M206" t="s">
+        <v>83</v>
+      </c>
+      <c r="N206" t="s">
+        <v>28</v>
+      </c>
+      <c r="O206" t="s">
+        <v>29</v>
+      </c>
+      <c r="P206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>300</v>
+      </c>
+      <c r="B207" t="s">
+        <v>85</v>
+      </c>
+      <c r="C207" t="s">
+        <v>86</v>
+      </c>
+      <c r="D207" t="s">
+        <v>87</v>
+      </c>
+      <c r="F207" t="s">
+        <v>35</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="J207" t="s">
+        <v>88</v>
+      </c>
+      <c r="K207" t="s">
+        <v>25</v>
+      </c>
+      <c r="L207" t="s">
+        <v>26</v>
+      </c>
+      <c r="M207" t="s">
+        <v>89</v>
+      </c>
+      <c r="N207" t="s">
+        <v>28</v>
+      </c>
+      <c r="O207" t="s">
+        <v>90</v>
+      </c>
+      <c r="P207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>301</v>
+      </c>
+      <c r="B208" t="s">
+        <v>92</v>
+      </c>
+      <c r="C208" t="s">
+        <v>73</v>
+      </c>
+      <c r="D208" t="s">
+        <v>93</v>
+      </c>
+      <c r="G208" t="s">
+        <v>36</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="K208" t="s">
+        <v>50</v>
+      </c>
+      <c r="L208" t="s">
+        <v>26</v>
+      </c>
+      <c r="M208">
+        <v>0</v>
+      </c>
+      <c r="N208" t="s">
+        <v>28</v>
+      </c>
+      <c r="O208" t="s">
+        <v>94</v>
+      </c>
+      <c r="P208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>302</v>
+      </c>
+      <c r="B209" t="s">
+        <v>96</v>
+      </c>
+      <c r="C209" t="s">
+        <v>64</v>
+      </c>
+      <c r="D209" t="s">
+        <v>97</v>
+      </c>
+      <c r="E209" t="s">
+        <v>98</v>
+      </c>
+      <c r="F209" t="s">
+        <v>99</v>
+      </c>
+      <c r="G209" t="s">
+        <v>100</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="M209">
+        <v>0</v>
+      </c>
+      <c r="N209">
+        <v>0</v>
+      </c>
+      <c r="O209">
+        <v>0</v>
+      </c>
+      <c r="P209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>303</v>
+      </c>
+      <c r="B210" t="s">
+        <v>102</v>
+      </c>
+      <c r="C210" t="s">
+        <v>32</v>
+      </c>
+      <c r="D210" t="s">
+        <v>103</v>
+      </c>
+      <c r="E210" t="s">
+        <v>104</v>
+      </c>
+      <c r="F210" t="s">
+        <v>105</v>
+      </c>
+      <c r="G210" t="s">
+        <v>106</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <v>0</v>
+      </c>
+      <c r="O210">
+        <v>0</v>
+      </c>
+      <c r="P210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>304</v>
+      </c>
+      <c r="B211" t="s">
+        <v>108</v>
+      </c>
+      <c r="C211" t="s">
+        <v>73</v>
+      </c>
+      <c r="D211" t="s">
+        <v>109</v>
+      </c>
+      <c r="F211" t="s">
+        <v>35</v>
+      </c>
+      <c r="G211" t="s">
+        <v>36</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="M211">
+        <v>0</v>
+      </c>
+      <c r="N211" t="s">
+        <v>28</v>
+      </c>
+      <c r="O211" t="s">
+        <v>110</v>
+      </c>
+      <c r="P211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>305</v>
+      </c>
+      <c r="B212" t="s">
+        <v>17</v>
+      </c>
+      <c r="C212" t="s">
+        <v>18</v>
+      </c>
+      <c r="D212" t="s">
+        <v>19</v>
+      </c>
+      <c r="E212" t="s">
+        <v>20</v>
+      </c>
+      <c r="F212" t="s">
+        <v>21</v>
+      </c>
+      <c r="G212" t="s">
+        <v>22</v>
+      </c>
+      <c r="H212" t="s">
+        <v>232</v>
+      </c>
+      <c r="J212" t="s">
+        <v>24</v>
+      </c>
+      <c r="K212" t="s">
+        <v>25</v>
+      </c>
+      <c r="L212" t="s">
+        <v>26</v>
+      </c>
+      <c r="M212" t="s">
+        <v>27</v>
+      </c>
+      <c r="N212" t="s">
+        <v>28</v>
+      </c>
+      <c r="O212" t="s">
+        <v>29</v>
+      </c>
+      <c r="P212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>306</v>
+      </c>
+      <c r="B213" t="s">
+        <v>31</v>
+      </c>
+      <c r="C213" t="s">
+        <v>32</v>
+      </c>
+      <c r="D213" t="s">
+        <v>33</v>
+      </c>
+      <c r="E213" t="s">
+        <v>34</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <v>0</v>
+      </c>
+      <c r="O213">
+        <v>0</v>
+      </c>
+      <c r="P213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>307</v>
+      </c>
+      <c r="B214" t="s">
+        <v>39</v>
+      </c>
+      <c r="C214" t="s">
+        <v>40</v>
+      </c>
+      <c r="D214" t="s">
+        <v>41</v>
+      </c>
+      <c r="E214" t="s">
+        <v>42</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="M214">
+        <v>0</v>
+      </c>
+      <c r="N214">
+        <v>0</v>
+      </c>
+      <c r="O214">
+        <v>0</v>
+      </c>
+      <c r="P214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>308</v>
+      </c>
+      <c r="B215" t="s">
+        <v>44</v>
+      </c>
+      <c r="C215" t="s">
+        <v>45</v>
+      </c>
+      <c r="D215" t="s">
+        <v>46</v>
+      </c>
+      <c r="E215" t="s">
+        <v>47</v>
+      </c>
+      <c r="F215" t="s">
+        <v>35</v>
+      </c>
+      <c r="G215" t="s">
+        <v>36</v>
+      </c>
+      <c r="H215" t="s">
+        <v>374</v>
+      </c>
+      <c r="J215" t="s">
+        <v>49</v>
+      </c>
+      <c r="K215" t="s">
+        <v>50</v>
+      </c>
+      <c r="L215" t="s">
+        <v>26</v>
+      </c>
+      <c r="M215" t="s">
+        <v>51</v>
+      </c>
+      <c r="N215" t="s">
+        <v>28</v>
+      </c>
+      <c r="O215" t="s">
+        <v>29</v>
+      </c>
+      <c r="P215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>309</v>
+      </c>
+      <c r="B216" t="s">
+        <v>53</v>
+      </c>
+      <c r="C216" t="s">
+        <v>32</v>
+      </c>
+      <c r="D216" t="s">
+        <v>54</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="M216">
+        <v>0</v>
+      </c>
+      <c r="N216" t="s">
+        <v>28</v>
+      </c>
+      <c r="O216" t="s">
+        <v>29</v>
+      </c>
+      <c r="P216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>310</v>
+      </c>
+      <c r="B217" t="s">
+        <v>57</v>
+      </c>
+      <c r="C217" t="s">
+        <v>45</v>
+      </c>
+      <c r="D217" t="s">
+        <v>58</v>
+      </c>
+      <c r="F217" t="s">
+        <v>35</v>
+      </c>
+      <c r="G217" t="s">
+        <v>36</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="J217" t="s">
+        <v>59</v>
+      </c>
+      <c r="K217" t="s">
+        <v>50</v>
+      </c>
+      <c r="L217" t="s">
+        <v>26</v>
+      </c>
+      <c r="M217" t="s">
+        <v>60</v>
+      </c>
+      <c r="N217" t="s">
+        <v>28</v>
+      </c>
+      <c r="O217" t="s">
+        <v>61</v>
+      </c>
+      <c r="P217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>311</v>
+      </c>
+      <c r="B218" t="s">
+        <v>63</v>
+      </c>
+      <c r="C218" t="s">
+        <v>64</v>
+      </c>
+      <c r="D218" t="s">
+        <v>65</v>
+      </c>
+      <c r="E218" t="s">
+        <v>66</v>
+      </c>
+      <c r="F218" t="s">
+        <v>35</v>
+      </c>
+      <c r="G218" t="s">
+        <v>36</v>
+      </c>
+      <c r="H218" t="s">
+        <v>375</v>
+      </c>
+      <c r="J218" t="s">
+        <v>68</v>
+      </c>
+      <c r="K218" t="s">
+        <v>50</v>
+      </c>
+      <c r="L218" t="s">
+        <v>26</v>
+      </c>
+      <c r="M218" t="s">
+        <v>69</v>
+      </c>
+      <c r="N218" t="s">
+        <v>28</v>
+      </c>
+      <c r="O218" t="s">
+        <v>70</v>
+      </c>
+      <c r="P218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>312</v>
+      </c>
+      <c r="B219" t="s">
+        <v>72</v>
+      </c>
+      <c r="C219" t="s">
+        <v>73</v>
+      </c>
+      <c r="D219" t="s">
+        <v>74</v>
+      </c>
+      <c r="E219" t="s">
+        <v>75</v>
+      </c>
+      <c r="F219" t="s">
+        <v>76</v>
+      </c>
+      <c r="G219" t="s">
+        <v>77</v>
+      </c>
+      <c r="H219" t="s">
+        <v>376</v>
+      </c>
+      <c r="J219" t="s">
+        <v>49</v>
+      </c>
+      <c r="K219" t="s">
+        <v>25</v>
+      </c>
+      <c r="L219" t="s">
+        <v>26</v>
+      </c>
+      <c r="M219" t="s">
+        <v>78</v>
+      </c>
+      <c r="N219" t="s">
+        <v>28</v>
+      </c>
+      <c r="O219" t="s">
+        <v>29</v>
+      </c>
+      <c r="P219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>313</v>
+      </c>
+      <c r="B220" t="s">
+        <v>80</v>
+      </c>
+      <c r="C220" t="s">
+        <v>45</v>
+      </c>
+      <c r="D220" t="s">
+        <v>81</v>
+      </c>
+      <c r="E220" t="s">
+        <v>82</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="J220" t="s">
+        <v>55</v>
+      </c>
+      <c r="K220" t="s">
+        <v>25</v>
+      </c>
+      <c r="L220" t="s">
+        <v>26</v>
+      </c>
+      <c r="M220" t="s">
+        <v>83</v>
+      </c>
+      <c r="N220" t="s">
+        <v>28</v>
+      </c>
+      <c r="O220" t="s">
+        <v>29</v>
+      </c>
+      <c r="P220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>314</v>
+      </c>
+      <c r="B221" t="s">
+        <v>85</v>
+      </c>
+      <c r="C221" t="s">
+        <v>86</v>
+      </c>
+      <c r="D221" t="s">
+        <v>87</v>
+      </c>
+      <c r="F221" t="s">
+        <v>35</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="J221" t="s">
+        <v>88</v>
+      </c>
+      <c r="K221" t="s">
+        <v>25</v>
+      </c>
+      <c r="L221" t="s">
+        <v>26</v>
+      </c>
+      <c r="M221" t="s">
+        <v>89</v>
+      </c>
+      <c r="N221" t="s">
+        <v>28</v>
+      </c>
+      <c r="O221" t="s">
+        <v>90</v>
+      </c>
+      <c r="P221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>315</v>
+      </c>
+      <c r="B222" t="s">
+        <v>92</v>
+      </c>
+      <c r="C222" t="s">
+        <v>73</v>
+      </c>
+      <c r="D222" t="s">
+        <v>93</v>
+      </c>
+      <c r="G222" t="s">
+        <v>36</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="K222" t="s">
+        <v>50</v>
+      </c>
+      <c r="L222" t="s">
+        <v>26</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222" t="s">
+        <v>28</v>
+      </c>
+      <c r="O222" t="s">
+        <v>94</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>316</v>
+      </c>
+      <c r="B223" t="s">
+        <v>96</v>
+      </c>
+      <c r="C223" t="s">
+        <v>64</v>
+      </c>
+      <c r="D223" t="s">
+        <v>97</v>
+      </c>
+      <c r="E223" t="s">
+        <v>98</v>
+      </c>
+      <c r="F223" t="s">
+        <v>99</v>
+      </c>
+      <c r="G223" t="s">
+        <v>100</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>317</v>
+      </c>
+      <c r="B224" t="s">
+        <v>102</v>
+      </c>
+      <c r="C224" t="s">
+        <v>32</v>
+      </c>
+      <c r="D224" t="s">
+        <v>103</v>
+      </c>
+      <c r="E224" t="s">
+        <v>104</v>
+      </c>
+      <c r="F224" t="s">
+        <v>105</v>
+      </c>
+      <c r="G224" t="s">
+        <v>106</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>318</v>
+      </c>
+      <c r="B225" t="s">
+        <v>108</v>
+      </c>
+      <c r="C225" t="s">
+        <v>73</v>
+      </c>
+      <c r="D225" t="s">
+        <v>109</v>
+      </c>
+      <c r="F225" t="s">
+        <v>35</v>
+      </c>
+      <c r="G225" t="s">
+        <v>36</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225" t="s">
+        <v>28</v>
+      </c>
+      <c r="O225" t="s">
+        <v>110</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>319</v>
+      </c>
+      <c r="B226" t="s">
+        <v>17</v>
+      </c>
+      <c r="C226" t="s">
+        <v>18</v>
+      </c>
+      <c r="D226" t="s">
+        <v>19</v>
+      </c>
+      <c r="E226" t="s">
+        <v>20</v>
+      </c>
+      <c r="F226" t="s">
+        <v>21</v>
+      </c>
+      <c r="G226" t="s">
+        <v>22</v>
+      </c>
+      <c r="H226" t="s">
+        <v>233</v>
+      </c>
+      <c r="J226" t="s">
+        <v>24</v>
+      </c>
+      <c r="K226" t="s">
+        <v>25</v>
+      </c>
+      <c r="L226" t="s">
+        <v>26</v>
+      </c>
+      <c r="M226" t="s">
+        <v>27</v>
+      </c>
+      <c r="N226" t="s">
+        <v>28</v>
+      </c>
+      <c r="O226" t="s">
+        <v>29</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>320</v>
+      </c>
+      <c r="B227" t="s">
+        <v>31</v>
+      </c>
+      <c r="C227" t="s">
+        <v>32</v>
+      </c>
+      <c r="D227" t="s">
+        <v>33</v>
+      </c>
+      <c r="E227" t="s">
+        <v>34</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>321</v>
+      </c>
+      <c r="B228" t="s">
+        <v>39</v>
+      </c>
+      <c r="C228" t="s">
+        <v>40</v>
+      </c>
+      <c r="D228" t="s">
+        <v>41</v>
+      </c>
+      <c r="E228" t="s">
+        <v>42</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>322</v>
+      </c>
+      <c r="B229" t="s">
+        <v>44</v>
+      </c>
+      <c r="C229" t="s">
+        <v>45</v>
+      </c>
+      <c r="D229" t="s">
+        <v>46</v>
+      </c>
+      <c r="E229" t="s">
+        <v>47</v>
+      </c>
+      <c r="F229" t="s">
+        <v>35</v>
+      </c>
+      <c r="G229" t="s">
+        <v>36</v>
+      </c>
+      <c r="H229" t="s">
+        <v>377</v>
+      </c>
+      <c r="J229" t="s">
+        <v>49</v>
+      </c>
+      <c r="K229" t="s">
+        <v>50</v>
+      </c>
+      <c r="L229" t="s">
+        <v>26</v>
+      </c>
+      <c r="M229" t="s">
+        <v>51</v>
+      </c>
+      <c r="N229" t="s">
+        <v>28</v>
+      </c>
+      <c r="O229" t="s">
+        <v>29</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>323</v>
+      </c>
+      <c r="B230" t="s">
+        <v>53</v>
+      </c>
+      <c r="C230" t="s">
+        <v>32</v>
+      </c>
+      <c r="D230" t="s">
+        <v>54</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230" t="s">
+        <v>28</v>
+      </c>
+      <c r="O230" t="s">
+        <v>29</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>324</v>
+      </c>
+      <c r="B231" t="s">
+        <v>57</v>
+      </c>
+      <c r="C231" t="s">
+        <v>45</v>
+      </c>
+      <c r="D231" t="s">
+        <v>58</v>
+      </c>
+      <c r="F231" t="s">
+        <v>35</v>
+      </c>
+      <c r="G231" t="s">
+        <v>36</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="J231" t="s">
+        <v>59</v>
+      </c>
+      <c r="K231" t="s">
+        <v>50</v>
+      </c>
+      <c r="L231" t="s">
+        <v>26</v>
+      </c>
+      <c r="M231" t="s">
+        <v>60</v>
+      </c>
+      <c r="N231" t="s">
+        <v>28</v>
+      </c>
+      <c r="O231" t="s">
+        <v>61</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>325</v>
+      </c>
+      <c r="B232" t="s">
+        <v>63</v>
+      </c>
+      <c r="C232" t="s">
+        <v>64</v>
+      </c>
+      <c r="D232" t="s">
+        <v>65</v>
+      </c>
+      <c r="E232" t="s">
+        <v>66</v>
+      </c>
+      <c r="F232" t="s">
+        <v>35</v>
+      </c>
+      <c r="G232" t="s">
+        <v>36</v>
+      </c>
+      <c r="H232" t="s">
+        <v>378</v>
+      </c>
+      <c r="J232" t="s">
+        <v>68</v>
+      </c>
+      <c r="K232" t="s">
+        <v>50</v>
+      </c>
+      <c r="L232" t="s">
+        <v>26</v>
+      </c>
+      <c r="M232" t="s">
+        <v>69</v>
+      </c>
+      <c r="N232" t="s">
+        <v>28</v>
+      </c>
+      <c r="O232" t="s">
+        <v>70</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>326</v>
+      </c>
+      <c r="B233" t="s">
+        <v>72</v>
+      </c>
+      <c r="C233" t="s">
+        <v>73</v>
+      </c>
+      <c r="D233" t="s">
+        <v>74</v>
+      </c>
+      <c r="E233" t="s">
+        <v>75</v>
+      </c>
+      <c r="F233" t="s">
+        <v>76</v>
+      </c>
+      <c r="G233" t="s">
+        <v>77</v>
+      </c>
+      <c r="H233" t="s">
+        <v>379</v>
+      </c>
+      <c r="J233" t="s">
+        <v>49</v>
+      </c>
+      <c r="K233" t="s">
+        <v>25</v>
+      </c>
+      <c r="L233" t="s">
+        <v>26</v>
+      </c>
+      <c r="M233" t="s">
+        <v>78</v>
+      </c>
+      <c r="N233" t="s">
+        <v>28</v>
+      </c>
+      <c r="O233" t="s">
+        <v>29</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>327</v>
+      </c>
+      <c r="B234" t="s">
+        <v>80</v>
+      </c>
+      <c r="C234" t="s">
+        <v>45</v>
+      </c>
+      <c r="D234" t="s">
+        <v>81</v>
+      </c>
+      <c r="E234" t="s">
+        <v>82</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="J234" t="s">
+        <v>55</v>
+      </c>
+      <c r="K234" t="s">
+        <v>25</v>
+      </c>
+      <c r="L234" t="s">
+        <v>26</v>
+      </c>
+      <c r="M234" t="s">
+        <v>83</v>
+      </c>
+      <c r="N234" t="s">
+        <v>28</v>
+      </c>
+      <c r="O234" t="s">
+        <v>29</v>
+      </c>
+      <c r="P234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>328</v>
+      </c>
+      <c r="B235" t="s">
+        <v>85</v>
+      </c>
+      <c r="C235" t="s">
+        <v>86</v>
+      </c>
+      <c r="D235" t="s">
+        <v>87</v>
+      </c>
+      <c r="F235" t="s">
+        <v>35</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="J235" t="s">
+        <v>88</v>
+      </c>
+      <c r="K235" t="s">
+        <v>25</v>
+      </c>
+      <c r="L235" t="s">
+        <v>26</v>
+      </c>
+      <c r="M235" t="s">
+        <v>89</v>
+      </c>
+      <c r="N235" t="s">
+        <v>28</v>
+      </c>
+      <c r="O235" t="s">
+        <v>90</v>
+      </c>
+      <c r="P235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>329</v>
+      </c>
+      <c r="B236" t="s">
+        <v>92</v>
+      </c>
+      <c r="C236" t="s">
+        <v>73</v>
+      </c>
+      <c r="D236" t="s">
+        <v>93</v>
+      </c>
+      <c r="G236" t="s">
+        <v>36</v>
+      </c>
+      <c r="H236">
+        <v>0</v>
+      </c>
+      <c r="K236" t="s">
+        <v>50</v>
+      </c>
+      <c r="L236" t="s">
+        <v>26</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236" t="s">
+        <v>28</v>
+      </c>
+      <c r="O236" t="s">
+        <v>94</v>
+      </c>
+      <c r="P236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>330</v>
+      </c>
+      <c r="B237" t="s">
+        <v>96</v>
+      </c>
+      <c r="C237" t="s">
+        <v>64</v>
+      </c>
+      <c r="D237" t="s">
+        <v>97</v>
+      </c>
+      <c r="E237" t="s">
+        <v>98</v>
+      </c>
+      <c r="F237" t="s">
+        <v>99</v>
+      </c>
+      <c r="G237" t="s">
+        <v>100</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237">
+        <v>0</v>
+      </c>
+      <c r="O237">
+        <v>0</v>
+      </c>
+      <c r="P237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>331</v>
+      </c>
+      <c r="B238" t="s">
+        <v>102</v>
+      </c>
+      <c r="C238" t="s">
+        <v>32</v>
+      </c>
+      <c r="D238" t="s">
+        <v>103</v>
+      </c>
+      <c r="E238" t="s">
+        <v>104</v>
+      </c>
+      <c r="F238" t="s">
+        <v>105</v>
+      </c>
+      <c r="G238" t="s">
+        <v>106</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <v>0</v>
+      </c>
+      <c r="O238">
+        <v>0</v>
+      </c>
+      <c r="P238">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
